--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_healthcare_support_services.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_healthcare_support_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="cose_mull_n0000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,25 +593,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0413</v>
+        <v>0.009639999999999999</v>
       </c>
       <c r="G2">
-        <v>-0.0009569377990430623</v>
+        <v>-0.02793791574279379</v>
       </c>
       <c r="H2">
-        <v>-0.0009569377990430623</v>
+        <v>-0.02793791574279379</v>
       </c>
       <c r="I2">
-        <v>-0.07105263157894737</v>
+        <v>0.03858093126385809</v>
       </c>
       <c r="J2">
-        <v>-0.07105263157894737</v>
+        <v>0.03858093126385809</v>
       </c>
       <c r="K2">
-        <v>-0.643</v>
+        <v>-0.224</v>
       </c>
       <c r="L2">
-        <v>-0.1538277511961723</v>
+        <v>-0.04966740576496674</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +635,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.023</v>
+        <v>0.036</v>
       </c>
       <c r="V2">
-        <v>0.01642857142857143</v>
+        <v>0.02155688622754491</v>
       </c>
       <c r="W2">
-        <v>-0.5403361344537816</v>
+        <v>-0.5463414634146342</v>
       </c>
       <c r="X2">
-        <v>0.1243338587910743</v>
+        <v>0.1257555564332674</v>
       </c>
       <c r="Y2">
-        <v>-0.6646699932448559</v>
+        <v>-0.6720970198479015</v>
       </c>
       <c r="Z2">
-        <v>0.8681204569055037</v>
+        <v>5.687263556116014</v>
       </c>
       <c r="AA2">
-        <v>-0.06168224299065421</v>
+        <v>0.2194199243379571</v>
       </c>
       <c r="AB2">
-        <v>0.1099809705828504</v>
+        <v>0.1087981206704334</v>
       </c>
       <c r="AC2">
-        <v>-0.1716632135735046</v>
+        <v>0.1106218036675237</v>
       </c>
       <c r="AD2">
-        <v>0.406</v>
+        <v>0.666</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.406</v>
+        <v>0.666</v>
       </c>
       <c r="AG2">
-        <v>0.383</v>
+        <v>0.63</v>
       </c>
       <c r="AH2">
-        <v>0.2248062015503876</v>
+        <v>0.2851027397260275</v>
       </c>
       <c r="AI2">
-        <v>0.4975490196078431</v>
+        <v>0.6761421319796954</v>
       </c>
       <c r="AJ2">
-        <v>0.2148065058889512</v>
+        <v>0.2739130434782609</v>
       </c>
       <c r="AK2">
-        <v>0.4829760403530896</v>
+        <v>0.6638566912539515</v>
       </c>
       <c r="AL2">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="AM2">
-        <v>0.222</v>
+        <v>0.297</v>
       </c>
       <c r="AN2">
-        <v>-1.4</v>
+        <v>3.397959183673469</v>
       </c>
       <c r="AO2">
-        <v>-1.060714285714285</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="AP2">
-        <v>-1.320689655172414</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="AQ2">
-        <v>-1.337837837837837</v>
+        <v>0.5858585858585857</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +721,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0413</v>
+        <v>0.009639999999999999</v>
       </c>
       <c r="G3">
-        <v>-0.0009569377990430623</v>
+        <v>-0.02793791574279379</v>
       </c>
       <c r="H3">
-        <v>-0.0009569377990430623</v>
+        <v>-0.02793791574279379</v>
       </c>
       <c r="I3">
-        <v>-0.07105263157894737</v>
+        <v>0.03858093126385809</v>
       </c>
       <c r="J3">
-        <v>-0.07105263157894737</v>
+        <v>0.03858093126385809</v>
       </c>
       <c r="K3">
-        <v>-0.643</v>
+        <v>-0.224</v>
       </c>
       <c r="L3">
-        <v>-0.1538277511961723</v>
+        <v>-0.04966740576496674</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +763,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.023</v>
+        <v>0.036</v>
       </c>
       <c r="V3">
-        <v>0.01642857142857143</v>
+        <v>0.02155688622754491</v>
       </c>
       <c r="W3">
-        <v>-0.5403361344537816</v>
+        <v>-0.5463414634146342</v>
       </c>
       <c r="X3">
-        <v>0.1243338587910743</v>
+        <v>0.1257555564332674</v>
       </c>
       <c r="Y3">
-        <v>-0.6646699932448559</v>
+        <v>-0.6720970198479015</v>
       </c>
       <c r="Z3">
-        <v>0.8681204569055037</v>
+        <v>5.687263556116014</v>
       </c>
       <c r="AA3">
-        <v>-0.06168224299065421</v>
+        <v>0.2194199243379571</v>
       </c>
       <c r="AB3">
-        <v>0.1099809705828504</v>
+        <v>0.1087981206704334</v>
       </c>
       <c r="AC3">
-        <v>-0.1716632135735046</v>
+        <v>0.1106218036675237</v>
       </c>
       <c r="AD3">
-        <v>0.406</v>
+        <v>0.666</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.406</v>
+        <v>0.666</v>
       </c>
       <c r="AG3">
-        <v>0.383</v>
+        <v>0.63</v>
       </c>
       <c r="AH3">
-        <v>0.2248062015503876</v>
+        <v>0.2851027397260275</v>
       </c>
       <c r="AI3">
-        <v>0.4975490196078431</v>
+        <v>0.6761421319796954</v>
       </c>
       <c r="AJ3">
-        <v>0.2148065058889512</v>
+        <v>0.2739130434782609</v>
       </c>
       <c r="AK3">
-        <v>0.4829760403530896</v>
+        <v>0.6638566912539515</v>
       </c>
       <c r="AL3">
+        <v>0.33</v>
+      </c>
+      <c r="AM3">
+        <v>0.297</v>
+      </c>
+      <c r="AN3">
+        <v>3.397959183673469</v>
+      </c>
+      <c r="AO3">
+        <v>0.5272727272727272</v>
+      </c>
+      <c r="AP3">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="AQ3">
+        <v>0.5858585858585857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Muller &amp; Phipps (Ceylon) PLC (COSE:MULL.N0000)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>COSE:MULL.N0000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Healthcare Support Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.285102739726027</v>
+      </c>
+      <c r="F2">
+        <v>0.73</v>
+      </c>
+      <c r="G2">
+        <v>1.67</v>
+      </c>
+      <c r="H2">
+        <v>1.29994359911636</v>
+      </c>
+      <c r="I2">
+        <v>2.3</v>
+      </c>
+      <c r="J2">
+        <v>2.96922359911636</v>
+      </c>
+      <c r="K2">
+        <v>0.666</v>
+      </c>
+      <c r="L2">
+        <v>1.70528</v>
+      </c>
+      <c r="M2">
+        <v>0.108798120670433</v>
+      </c>
+      <c r="N2">
+        <v>0.08637256456202939</v>
+      </c>
+      <c r="O2">
+        <v>0.0662772231870509</v>
+      </c>
+      <c r="P2">
+        <v>0.016272</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.125755556433267</v>
+      </c>
+      <c r="T2">
+        <v>0.275903720600109</v>
+      </c>
+      <c r="U2">
+        <v>0.972028100182067</v>
+      </c>
+      <c r="V2">
+        <v>2.22528075064322</v>
+      </c>
+      <c r="W2">
+        <v>4.514868551937388</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>1.67</v>
+      </c>
+      <c r="AB2">
+        <v>0.1198067796717549</v>
+      </c>
+      <c r="AC2">
+        <v>0.09205169887090407</v>
+      </c>
+      <c r="AD2">
         <v>0.28</v>
       </c>
-      <c r="AM3">
-        <v>0.222</v>
-      </c>
-      <c r="AN3">
-        <v>-1.4</v>
-      </c>
-      <c r="AO3">
-        <v>-1.060714285714285</v>
-      </c>
-      <c r="AP3">
-        <v>-1.320689655172414</v>
-      </c>
-      <c r="AQ3">
-        <v>-1.337837837837837</v>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.196</v>
+      </c>
+      <c r="AH2">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.02400000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>0.666</v>
+      </c>
+      <c r="AK2">
+        <v>0.666</v>
+      </c>
+      <c r="AL2">
+        <v>0.33</v>
+      </c>
+      <c r="AM2">
+        <v>0.666</v>
+      </c>
+      <c r="AN2">
+        <v>0.036</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.0997763757692678</v>
+      </c>
+      <c r="C2">
+        <v>2.565341782274716</v>
+      </c>
+      <c r="D2">
+        <v>2.529341782274716</v>
+      </c>
+      <c r="E2">
+        <v>-0.666</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0.036</v>
+      </c>
+      <c r="H2">
+        <v>1.67</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.196</v>
+      </c>
+      <c r="K2">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L2">
+        <v>0.174</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.174</v>
+      </c>
+      <c r="O2">
+        <v>0.04872</v>
+      </c>
+      <c r="P2">
+        <v>0.12528</v>
+      </c>
+      <c r="Q2">
+        <v>0.14728</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.0997763757692678</v>
+      </c>
+      <c r="T2">
+        <v>0.7551857751051637</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.28</v>
+      </c>
+      <c r="W2">
+        <v>0.011664</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.09954668191711386</v>
+      </c>
+      <c r="C3">
+        <v>2.548419406850412</v>
+      </c>
+      <c r="D3">
+        <v>2.535779406850412</v>
+      </c>
+      <c r="E3">
+        <v>-0.64264</v>
+      </c>
+      <c r="F3">
+        <v>0.02336</v>
+      </c>
+      <c r="G3">
+        <v>0.036</v>
+      </c>
+      <c r="H3">
+        <v>1.67</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0.196</v>
+      </c>
+      <c r="K3">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L3">
+        <v>0.174</v>
+      </c>
+      <c r="M3">
+        <v>0.0003784319999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.173621568</v>
+      </c>
+      <c r="O3">
+        <v>0.04861403904</v>
+      </c>
+      <c r="P3">
+        <v>0.12500752896</v>
+      </c>
+      <c r="Q3">
+        <v>0.14700752896</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.1004343857748625</v>
+      </c>
+      <c r="T3">
+        <v>0.7606780352877468</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.28</v>
+      </c>
+      <c r="W3">
+        <v>0.011664</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>459.7919837645865</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.09931698806495989</v>
+      </c>
+      <c r="C4">
+        <v>2.53152988484232</v>
+      </c>
+      <c r="D4">
+        <v>2.54224988484232</v>
+      </c>
+      <c r="E4">
+        <v>-0.6192800000000001</v>
+      </c>
+      <c r="F4">
+        <v>0.04672</v>
+      </c>
+      <c r="G4">
+        <v>0.036</v>
+      </c>
+      <c r="H4">
+        <v>1.67</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0.196</v>
+      </c>
+      <c r="K4">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L4">
+        <v>0.174</v>
+      </c>
+      <c r="M4">
+        <v>0.0007568639999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.173243136</v>
+      </c>
+      <c r="O4">
+        <v>0.04850807808</v>
+      </c>
+      <c r="P4">
+        <v>0.12473505792</v>
+      </c>
+      <c r="Q4">
+        <v>0.14673505792</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.1011058245560815</v>
+      </c>
+      <c r="T4">
+        <v>0.7662823824128314</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.28</v>
+      </c>
+      <c r="W4">
+        <v>0.011664</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>229.8959918822933</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.09908729421280596</v>
+      </c>
+      <c r="C5">
+        <v>2.514673468387262</v>
+      </c>
+      <c r="D5">
+        <v>2.548753468387262</v>
+      </c>
+      <c r="E5">
+        <v>-0.59592</v>
+      </c>
+      <c r="F5">
+        <v>0.07007999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.036</v>
+      </c>
+      <c r="H5">
+        <v>1.67</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.196</v>
+      </c>
+      <c r="K5">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L5">
+        <v>0.174</v>
+      </c>
+      <c r="M5">
+        <v>0.001135296</v>
+      </c>
+      <c r="N5">
+        <v>0.172864704</v>
+      </c>
+      <c r="O5">
+        <v>0.04840211712</v>
+      </c>
+      <c r="P5">
+        <v>0.12446258688</v>
+      </c>
+      <c r="Q5">
+        <v>0.14646258688</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.1017911074358824</v>
+      </c>
+      <c r="T5">
+        <v>0.772002283086887</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.28</v>
+      </c>
+      <c r="W5">
+        <v>0.011664</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>153.2639945881955</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.09885760036065201</v>
+      </c>
+      <c r="C6">
+        <v>2.497850412208748</v>
+      </c>
+      <c r="D6">
+        <v>2.555290412208748</v>
+      </c>
+      <c r="E6">
+        <v>-0.5725600000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.09344</v>
+      </c>
+      <c r="G6">
+        <v>0.036</v>
+      </c>
+      <c r="H6">
+        <v>1.67</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0.196</v>
+      </c>
+      <c r="K6">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L6">
+        <v>0.174</v>
+      </c>
+      <c r="M6">
+        <v>0.001513728</v>
+      </c>
+      <c r="N6">
+        <v>0.172486272</v>
+      </c>
+      <c r="O6">
+        <v>0.04829615616000001</v>
+      </c>
+      <c r="P6">
+        <v>0.12419011584</v>
+      </c>
+      <c r="Q6">
+        <v>0.14619011584</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.1024906670423458</v>
+      </c>
+      <c r="T6">
+        <v>0.7778413483583186</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.28</v>
+      </c>
+      <c r="W6">
+        <v>0.011664</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>114.9479959411466</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.09862790650849804</v>
+      </c>
+      <c r="C7">
+        <v>2.481060973650222</v>
+      </c>
+      <c r="D7">
+        <v>2.561860973650222</v>
+      </c>
+      <c r="E7">
+        <v>-0.5492</v>
+      </c>
+      <c r="F7">
+        <v>0.1168</v>
+      </c>
+      <c r="G7">
+        <v>0.036</v>
+      </c>
+      <c r="H7">
+        <v>1.67</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0.196</v>
+      </c>
+      <c r="K7">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.174</v>
+      </c>
+      <c r="M7">
+        <v>0.00189216</v>
+      </c>
+      <c r="N7">
+        <v>0.17210784</v>
+      </c>
+      <c r="O7">
+        <v>0.0481901952</v>
+      </c>
+      <c r="P7">
+        <v>0.1239176448</v>
+      </c>
+      <c r="Q7">
+        <v>0.1459176448</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.1032049542194716</v>
+      </c>
+      <c r="T7">
+        <v>0.7838033413196751</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.28</v>
+      </c>
+      <c r="W7">
+        <v>0.011664</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>91.9583967529173</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.0983982126563441</v>
+      </c>
+      <c r="C8">
+        <v>2.464305412708839</v>
+      </c>
+      <c r="D8">
+        <v>2.568465412708839</v>
+      </c>
+      <c r="E8">
+        <v>-0.5258400000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.14016</v>
+      </c>
+      <c r="G8">
+        <v>0.036</v>
+      </c>
+      <c r="H8">
+        <v>1.67</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.196</v>
+      </c>
+      <c r="K8">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L8">
+        <v>0.174</v>
+      </c>
+      <c r="M8">
+        <v>0.002270592</v>
+      </c>
+      <c r="N8">
+        <v>0.171729408</v>
+      </c>
+      <c r="O8">
+        <v>0.04808423424</v>
+      </c>
+      <c r="P8">
+        <v>0.12364517376</v>
+      </c>
+      <c r="Q8">
+        <v>0.14564517376</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.1039344389961108</v>
+      </c>
+      <c r="T8">
+        <v>0.7898921851951032</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.28</v>
+      </c>
+      <c r="W8">
+        <v>0.011664</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>76.63199729409776</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.09816851880419014</v>
+      </c>
+      <c r="C9">
+        <v>2.447583992069762</v>
+      </c>
+      <c r="D9">
+        <v>2.575103992069762</v>
+      </c>
+      <c r="E9">
+        <v>-0.50248</v>
+      </c>
+      <c r="F9">
+        <v>0.16352</v>
+      </c>
+      <c r="G9">
+        <v>0.036</v>
+      </c>
+      <c r="H9">
+        <v>1.67</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.196</v>
+      </c>
+      <c r="K9">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L9">
+        <v>0.174</v>
+      </c>
+      <c r="M9">
+        <v>0.002649024</v>
+      </c>
+      <c r="N9">
+        <v>0.171350976</v>
+      </c>
+      <c r="O9">
+        <v>0.04797827328</v>
+      </c>
+      <c r="P9">
+        <v>0.12337270272</v>
+      </c>
+      <c r="Q9">
+        <v>0.14537270272</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.1046796116174088</v>
+      </c>
+      <c r="T9">
+        <v>0.7961119719495726</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.28</v>
+      </c>
+      <c r="W9">
+        <v>0.011664</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>65.68456910922664</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.09793882495203619</v>
+      </c>
+      <c r="C10">
+        <v>2.430896977140983</v>
+      </c>
+      <c r="D10">
+        <v>2.581776977140983</v>
+      </c>
+      <c r="E10">
+        <v>-0.47912</v>
+      </c>
+      <c r="F10">
+        <v>0.18688</v>
+      </c>
+      <c r="G10">
+        <v>0.036</v>
+      </c>
+      <c r="H10">
+        <v>1.67</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0.196</v>
+      </c>
+      <c r="K10">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.174</v>
+      </c>
+      <c r="M10">
+        <v>0.003027456</v>
+      </c>
+      <c r="N10">
+        <v>0.170972544</v>
+      </c>
+      <c r="O10">
+        <v>0.04787231232</v>
+      </c>
+      <c r="P10">
+        <v>0.12310023168</v>
+      </c>
+      <c r="Q10">
+        <v>0.14510023168</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.1054409836435176</v>
+      </c>
+      <c r="T10">
+        <v>0.8024669714595739</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.28</v>
+      </c>
+      <c r="W10">
+        <v>0.011664</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>57.47399797057331</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.09770913109988227</v>
+      </c>
+      <c r="C11">
+        <v>2.414244636088698</v>
+      </c>
+      <c r="D11">
+        <v>2.588484636088698</v>
+      </c>
+      <c r="E11">
+        <v>-0.4557600000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.21024</v>
+      </c>
+      <c r="G11">
+        <v>0.036</v>
+      </c>
+      <c r="H11">
+        <v>1.67</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.196</v>
+      </c>
+      <c r="K11">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L11">
+        <v>0.174</v>
+      </c>
+      <c r="M11">
+        <v>0.003405888</v>
+      </c>
+      <c r="N11">
+        <v>0.170594112</v>
+      </c>
+      <c r="O11">
+        <v>0.04776635136</v>
+      </c>
+      <c r="P11">
+        <v>0.12282776064</v>
+      </c>
+      <c r="Q11">
+        <v>0.14482776064</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.1062190891207497</v>
+      </c>
+      <c r="T11">
+        <v>0.8089616412884766</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.28</v>
+      </c>
+      <c r="W11">
+        <v>0.011664</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>51.08799819606517</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.09747943724772831</v>
+      </c>
+      <c r="C12">
+        <v>2.397627239873231</v>
+      </c>
+      <c r="D12">
+        <v>2.595227239873231</v>
+      </c>
+      <c r="E12">
+        <v>-0.4324</v>
+      </c>
+      <c r="F12">
+        <v>0.2336</v>
+      </c>
+      <c r="G12">
+        <v>0.036</v>
+      </c>
+      <c r="H12">
+        <v>1.67</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.196</v>
+      </c>
+      <c r="K12">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L12">
+        <v>0.174</v>
+      </c>
+      <c r="M12">
+        <v>0.00378432</v>
+      </c>
+      <c r="N12">
+        <v>0.17021568</v>
+      </c>
+      <c r="O12">
+        <v>0.0476603904</v>
+      </c>
+      <c r="P12">
+        <v>0.1225552896</v>
+      </c>
+      <c r="Q12">
+        <v>0.1445552896</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.1070144858308092</v>
+      </c>
+      <c r="T12">
+        <v>0.8156006371135769</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.28</v>
+      </c>
+      <c r="W12">
+        <v>0.011664</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>45.97919837645865</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.09724974339557435</v>
+      </c>
+      <c r="C13">
+        <v>2.381045062285518</v>
+      </c>
+      <c r="D13">
+        <v>2.602005062285518</v>
+      </c>
+      <c r="E13">
+        <v>-0.4090400000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.25696</v>
+      </c>
+      <c r="G13">
+        <v>0.036</v>
+      </c>
+      <c r="H13">
+        <v>1.67</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.196</v>
+      </c>
+      <c r="K13">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L13">
+        <v>0.174</v>
+      </c>
+      <c r="M13">
+        <v>0.004162752</v>
+      </c>
+      <c r="N13">
+        <v>0.169837248</v>
+      </c>
+      <c r="O13">
+        <v>0.04755442944</v>
+      </c>
+      <c r="P13">
+        <v>0.12228281856</v>
+      </c>
+      <c r="Q13">
+        <v>0.14428281856</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.1078277566242409</v>
+      </c>
+      <c r="T13">
+        <v>0.8223888238560951</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.28</v>
+      </c>
+      <c r="W13">
+        <v>0.011664</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>41.79927125132605</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.09702004954342039</v>
+      </c>
+      <c r="C14">
+        <v>2.364498379984166</v>
+      </c>
+      <c r="D14">
+        <v>2.608818379984166</v>
+      </c>
+      <c r="E14">
+        <v>-0.3856800000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.28032</v>
+      </c>
+      <c r="G14">
+        <v>0.036</v>
+      </c>
+      <c r="H14">
+        <v>1.67</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.196</v>
+      </c>
+      <c r="K14">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L14">
+        <v>0.174</v>
+      </c>
+      <c r="M14">
+        <v>0.004541183999999999</v>
+      </c>
+      <c r="N14">
+        <v>0.169458816</v>
+      </c>
+      <c r="O14">
+        <v>0.04744846848</v>
+      </c>
+      <c r="P14">
+        <v>0.12201034752</v>
+      </c>
+      <c r="Q14">
+        <v>0.14401034752</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.1086595108447959</v>
+      </c>
+      <c r="T14">
+        <v>0.8293312875700343</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.28</v>
+      </c>
+      <c r="W14">
+        <v>0.011664</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>38.31599864704888</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.09679035569126646</v>
+      </c>
+      <c r="C15">
+        <v>2.347987472533099</v>
+      </c>
+      <c r="D15">
+        <v>2.615667472533099</v>
+      </c>
+      <c r="E15">
+        <v>-0.36232</v>
+      </c>
+      <c r="F15">
+        <v>0.30368</v>
+      </c>
+      <c r="G15">
+        <v>0.036</v>
+      </c>
+      <c r="H15">
+        <v>1.67</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.196</v>
+      </c>
+      <c r="K15">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.174</v>
+      </c>
+      <c r="M15">
+        <v>0.004919616</v>
+      </c>
+      <c r="N15">
+        <v>0.169080384</v>
+      </c>
+      <c r="O15">
+        <v>0.04734250752000001</v>
+      </c>
+      <c r="P15">
+        <v>0.12173787648</v>
+      </c>
+      <c r="Q15">
+        <v>0.14373787648</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.1095103858520304</v>
+      </c>
+      <c r="T15">
+        <v>0.8364333481509606</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.28</v>
+      </c>
+      <c r="W15">
+        <v>0.011664</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>35.36861413573742</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.09656066183911249</v>
+      </c>
+      <c r="C16">
+        <v>2.331512622439797</v>
+      </c>
+      <c r="D16">
+        <v>2.622552622439797</v>
+      </c>
+      <c r="E16">
+        <v>-0.33896</v>
+      </c>
+      <c r="F16">
+        <v>0.32704</v>
+      </c>
+      <c r="G16">
+        <v>0.036</v>
+      </c>
+      <c r="H16">
+        <v>1.67</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0.196</v>
+      </c>
+      <c r="K16">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L16">
+        <v>0.174</v>
+      </c>
+      <c r="M16">
+        <v>0.005298048</v>
+      </c>
+      <c r="N16">
+        <v>0.168701952</v>
+      </c>
+      <c r="O16">
+        <v>0.04723654656</v>
+      </c>
+      <c r="P16">
+        <v>0.12146540544</v>
+      </c>
+      <c r="Q16">
+        <v>0.14346540544</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.1103810486501308</v>
+      </c>
+      <c r="T16">
+        <v>0.8437005729314433</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.28</v>
+      </c>
+      <c r="W16">
+        <v>0.011664</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>32.84228455461332</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.09633096798695855</v>
+      </c>
+      <c r="C17">
+        <v>2.315074115194133</v>
+      </c>
+      <c r="D17">
+        <v>2.629474115194133</v>
+      </c>
+      <c r="E17">
+        <v>-0.3156</v>
+      </c>
+      <c r="F17">
+        <v>0.3504</v>
+      </c>
+      <c r="G17">
+        <v>0.036</v>
+      </c>
+      <c r="H17">
+        <v>1.67</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.196</v>
+      </c>
+      <c r="K17">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L17">
+        <v>0.174</v>
+      </c>
+      <c r="M17">
+        <v>0.005676479999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.16832352</v>
+      </c>
+      <c r="O17">
+        <v>0.0471305856</v>
+      </c>
+      <c r="P17">
+        <v>0.1211929344</v>
+      </c>
+      <c r="Q17">
+        <v>0.1431929344</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.1112721976317159</v>
+      </c>
+      <c r="T17">
+        <v>0.8511387912361726</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.28</v>
+      </c>
+      <c r="W17">
+        <v>0.011664</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>30.6527989176391</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.0961012741348046</v>
+      </c>
+      <c r="C18">
+        <v>2.298672239307842</v>
+      </c>
+      <c r="D18">
+        <v>2.636432239307842</v>
+      </c>
+      <c r="E18">
+        <v>-0.2922400000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.37376</v>
+      </c>
+      <c r="G18">
+        <v>0.036</v>
+      </c>
+      <c r="H18">
+        <v>1.67</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0.196</v>
+      </c>
+      <c r="K18">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L18">
+        <v>0.174</v>
+      </c>
+      <c r="M18">
+        <v>0.006054911999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.167945088</v>
+      </c>
+      <c r="O18">
+        <v>0.04702462464000001</v>
+      </c>
+      <c r="P18">
+        <v>0.12092046336</v>
+      </c>
+      <c r="Q18">
+        <v>0.14292046336</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.112184564446196</v>
+      </c>
+      <c r="T18">
+        <v>0.8587541099767291</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.28</v>
+      </c>
+      <c r="W18">
+        <v>0.011664</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>28.73699898528666</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.09587158028265065</v>
+      </c>
+      <c r="C19">
+        <v>2.282307286354602</v>
+      </c>
+      <c r="D19">
+        <v>2.643427286354602</v>
+      </c>
+      <c r="E19">
+        <v>-0.26888</v>
+      </c>
+      <c r="F19">
+        <v>0.39712</v>
+      </c>
+      <c r="G19">
+        <v>0.036</v>
+      </c>
+      <c r="H19">
+        <v>1.67</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.196</v>
+      </c>
+      <c r="K19">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L19">
+        <v>0.174</v>
+      </c>
+      <c r="M19">
+        <v>0.006433344</v>
+      </c>
+      <c r="N19">
+        <v>0.167566656</v>
+      </c>
+      <c r="O19">
+        <v>0.04691866368</v>
+      </c>
+      <c r="P19">
+        <v>0.12064799232</v>
+      </c>
+      <c r="Q19">
+        <v>0.14264799232</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.1131189160031936</v>
+      </c>
+      <c r="T19">
+        <v>0.8665529303736842</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.28</v>
+      </c>
+      <c r="W19">
+        <v>0.011664</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>27.04658728026979</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.09564188643049669</v>
+      </c>
+      <c r="C20">
+        <v>2.265979551010766</v>
+      </c>
+      <c r="D20">
+        <v>2.650459551010766</v>
+      </c>
+      <c r="E20">
+        <v>-0.2455200000000001</v>
+      </c>
+      <c r="F20">
+        <v>0.42048</v>
+      </c>
+      <c r="G20">
+        <v>0.036</v>
+      </c>
+      <c r="H20">
+        <v>1.67</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0.196</v>
+      </c>
+      <c r="K20">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L20">
+        <v>0.174</v>
+      </c>
+      <c r="M20">
+        <v>0.006811775999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.167188224</v>
+      </c>
+      <c r="O20">
+        <v>0.04681270272</v>
+      </c>
+      <c r="P20">
+        <v>0.12037552128</v>
+      </c>
+      <c r="Q20">
+        <v>0.14237552128</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.1140760566225569</v>
+      </c>
+      <c r="T20">
+        <v>0.8745419659022724</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.28</v>
+      </c>
+      <c r="W20">
+        <v>0.011664</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>25.54399909803259</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.09541219257834276</v>
+      </c>
+      <c r="C21">
+        <v>2.249689331096739</v>
+      </c>
+      <c r="D21">
+        <v>2.657529331096739</v>
+      </c>
+      <c r="E21">
+        <v>-0.2221600000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.44384</v>
+      </c>
+      <c r="G21">
+        <v>0.036</v>
+      </c>
+      <c r="H21">
+        <v>1.67</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0.196</v>
+      </c>
+      <c r="K21">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.174</v>
+      </c>
+      <c r="M21">
+        <v>0.007190207999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.166809792</v>
+      </c>
+      <c r="O21">
+        <v>0.04670674176</v>
+      </c>
+      <c r="P21">
+        <v>0.12010305024</v>
+      </c>
+      <c r="Q21">
+        <v>0.14210305024</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.115056830343633</v>
+      </c>
+      <c r="T21">
+        <v>0.8827282615673692</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.28</v>
+      </c>
+      <c r="W21">
+        <v>0.011664</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>24.19957809287298</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.09518249872618881</v>
+      </c>
+      <c r="C22">
+        <v>2.233436927619028</v>
+      </c>
+      <c r="D22">
+        <v>2.664636927619028</v>
+      </c>
+      <c r="E22">
+        <v>-0.1988</v>
+      </c>
+      <c r="F22">
+        <v>0.4672</v>
+      </c>
+      <c r="G22">
+        <v>0.036</v>
+      </c>
+      <c r="H22">
+        <v>1.67</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.196</v>
+      </c>
+      <c r="K22">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L22">
+        <v>0.174</v>
+      </c>
+      <c r="M22">
+        <v>0.00756864</v>
+      </c>
+      <c r="N22">
+        <v>0.16643136</v>
+      </c>
+      <c r="O22">
+        <v>0.04660078080000001</v>
+      </c>
+      <c r="P22">
+        <v>0.1198305792</v>
+      </c>
+      <c r="Q22">
+        <v>0.1418305792</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.116062123407736</v>
+      </c>
+      <c r="T22">
+        <v>0.8911192146240932</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.28</v>
+      </c>
+      <c r="W22">
+        <v>0.011664</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>22.98959918822933</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.09495280487403486</v>
+      </c>
+      <c r="C23">
+        <v>2.217222644812955</v>
+      </c>
+      <c r="D23">
+        <v>2.671782644812955</v>
+      </c>
+      <c r="E23">
+        <v>-0.1754400000000001</v>
+      </c>
+      <c r="F23">
+        <v>0.4905599999999999</v>
+      </c>
+      <c r="G23">
+        <v>0.036</v>
+      </c>
+      <c r="H23">
+        <v>1.67</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0.196</v>
+      </c>
+      <c r="K23">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.174</v>
+      </c>
+      <c r="M23">
+        <v>0.007947071999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.166052928</v>
+      </c>
+      <c r="O23">
+        <v>0.04649481984</v>
+      </c>
+      <c r="P23">
+        <v>0.11955810816</v>
+      </c>
+      <c r="Q23">
+        <v>0.14155810816</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.117092866929158</v>
+      </c>
+      <c r="T23">
+        <v>0.8997225968721267</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.28</v>
+      </c>
+      <c r="W23">
+        <v>0.011664</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>21.89485636974221</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.09472311102188091</v>
+      </c>
+      <c r="C24">
+        <v>2.201046790186072</v>
+      </c>
+      <c r="D24">
+        <v>2.678966790186072</v>
+      </c>
+      <c r="E24">
+        <v>-0.1520800000000001</v>
+      </c>
+      <c r="F24">
+        <v>0.5139199999999999</v>
+      </c>
+      <c r="G24">
+        <v>0.036</v>
+      </c>
+      <c r="H24">
+        <v>1.67</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.196</v>
+      </c>
+      <c r="K24">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L24">
+        <v>0.174</v>
+      </c>
+      <c r="M24">
+        <v>0.008325503999999999</v>
+      </c>
+      <c r="N24">
+        <v>0.165674496</v>
+      </c>
+      <c r="O24">
+        <v>0.04638885887999999</v>
+      </c>
+      <c r="P24">
+        <v>0.11928563712</v>
+      </c>
+      <c r="Q24">
+        <v>0.14128563712</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.1181500397716422</v>
+      </c>
+      <c r="T24">
+        <v>0.9085465786649817</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.28</v>
+      </c>
+      <c r="W24">
+        <v>0.011664</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>20.89963562566302</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.09449341716972695</v>
+      </c>
+      <c r="C25">
+        <v>2.184909674562273</v>
+      </c>
+      <c r="D25">
+        <v>2.686189674562273</v>
+      </c>
+      <c r="E25">
+        <v>-0.1287200000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.53728</v>
+      </c>
+      <c r="G25">
+        <v>0.036</v>
+      </c>
+      <c r="H25">
+        <v>1.67</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.196</v>
+      </c>
+      <c r="K25">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L25">
+        <v>0.174</v>
+      </c>
+      <c r="M25">
+        <v>0.008703935999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.165296064</v>
+      </c>
+      <c r="O25">
+        <v>0.04628289792</v>
+      </c>
+      <c r="P25">
+        <v>0.11901316608</v>
+      </c>
+      <c r="Q25">
+        <v>0.14101316608</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.119234671648996</v>
+      </c>
+      <c r="T25">
+        <v>0.9175997547901183</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.28</v>
+      </c>
+      <c r="W25">
+        <v>0.011664</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>19.99095581585159</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.09426372331757302</v>
+      </c>
+      <c r="C26">
+        <v>2.168811612126616</v>
+      </c>
+      <c r="D26">
+        <v>2.693451612126616</v>
+      </c>
+      <c r="E26">
+        <v>-0.1053600000000001</v>
+      </c>
+      <c r="F26">
+        <v>0.5606399999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.036</v>
+      </c>
+      <c r="H26">
+        <v>1.67</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.196</v>
+      </c>
+      <c r="K26">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0.174</v>
+      </c>
+      <c r="M26">
+        <v>0.009082367999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.164917632</v>
+      </c>
+      <c r="O26">
+        <v>0.04617693696</v>
+      </c>
+      <c r="P26">
+        <v>0.11874069504</v>
+      </c>
+      <c r="Q26">
+        <v>0.14074069504</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.1203478464704908</v>
+      </c>
+      <c r="T26">
+        <v>0.9268911723922326</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.28</v>
+      </c>
+      <c r="W26">
+        <v>0.011664</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>19.15799932352444</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.09403402946541906</v>
+      </c>
+      <c r="C27">
+        <v>2.152752920470888</v>
+      </c>
+      <c r="D27">
+        <v>2.700752920470888</v>
+      </c>
+      <c r="E27">
+        <v>-0.08200000000000007</v>
+      </c>
+      <c r="F27">
+        <v>0.584</v>
+      </c>
+      <c r="G27">
+        <v>0.036</v>
+      </c>
+      <c r="H27">
+        <v>1.67</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.196</v>
+      </c>
+      <c r="K27">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L27">
+        <v>0.174</v>
+      </c>
+      <c r="M27">
+        <v>0.009460799999999998</v>
+      </c>
+      <c r="N27">
+        <v>0.1645392</v>
+      </c>
+      <c r="O27">
+        <v>0.04607097600000001</v>
+      </c>
+      <c r="P27">
+        <v>0.118468224</v>
+      </c>
+      <c r="Q27">
+        <v>0.140468224</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.1214907059538921</v>
+      </c>
+      <c r="T27">
+        <v>0.936430361130403</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.28</v>
+      </c>
+      <c r="W27">
+        <v>0.011664</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>18.39167935058346</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.09380433561326512</v>
+      </c>
+      <c r="C28">
+        <v>2.136733920639896</v>
+      </c>
+      <c r="D28">
+        <v>2.708093920639896</v>
+      </c>
+      <c r="E28">
+        <v>-0.05864000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.60736</v>
+      </c>
+      <c r="G28">
+        <v>0.036</v>
+      </c>
+      <c r="H28">
+        <v>1.67</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.196</v>
+      </c>
+      <c r="K28">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L28">
+        <v>0.174</v>
+      </c>
+      <c r="M28">
+        <v>0.009839232</v>
+      </c>
+      <c r="N28">
+        <v>0.164160768</v>
+      </c>
+      <c r="O28">
+        <v>0.04596501504</v>
+      </c>
+      <c r="P28">
+        <v>0.11819575296</v>
+      </c>
+      <c r="Q28">
+        <v>0.14019575296</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.1226644535314393</v>
+      </c>
+      <c r="T28">
+        <v>0.946227365780416</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.28</v>
+      </c>
+      <c r="W28">
+        <v>0.011664</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>17.68430706786871</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.09357464176111116</v>
+      </c>
+      <c r="C29">
+        <v>2.120754937178534</v>
+      </c>
+      <c r="D29">
+        <v>2.715474937178534</v>
+      </c>
+      <c r="E29">
+        <v>-0.03528000000000009</v>
+      </c>
+      <c r="F29">
+        <v>0.6307199999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.036</v>
+      </c>
+      <c r="H29">
+        <v>1.67</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0.196</v>
+      </c>
+      <c r="K29">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.174</v>
+      </c>
+      <c r="M29">
+        <v>0.010217664</v>
+      </c>
+      <c r="N29">
+        <v>0.163782336</v>
+      </c>
+      <c r="O29">
+        <v>0.04585905408</v>
+      </c>
+      <c r="P29">
+        <v>0.11792328192</v>
+      </c>
+      <c r="Q29">
+        <v>0.13992328192</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.1238703585768646</v>
+      </c>
+      <c r="T29">
+        <v>0.9562927815167306</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.28</v>
+      </c>
+      <c r="W29">
+        <v>0.011664</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>17.02933273202173</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.0933449479089572</v>
+      </c>
+      <c r="C30">
+        <v>2.104816298179599</v>
+      </c>
+      <c r="D30">
+        <v>2.722896298179599</v>
+      </c>
+      <c r="E30">
+        <v>-0.01192000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0.65408</v>
+      </c>
+      <c r="G30">
+        <v>0.036</v>
+      </c>
+      <c r="H30">
+        <v>1.67</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.196</v>
+      </c>
+      <c r="K30">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L30">
+        <v>0.174</v>
+      </c>
+      <c r="M30">
+        <v>0.010596096</v>
+      </c>
+      <c r="N30">
+        <v>0.163403904</v>
+      </c>
+      <c r="O30">
+        <v>0.04575309312</v>
+      </c>
+      <c r="P30">
+        <v>0.11765081088</v>
+      </c>
+      <c r="Q30">
+        <v>0.13965081088</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.1251097609846628</v>
+      </c>
+      <c r="T30">
+        <v>0.9666377921346095</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.28</v>
+      </c>
+      <c r="W30">
+        <v>0.011664</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>16.42114227730666</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.09311525405680325</v>
+      </c>
+      <c r="C31">
+        <v>2.088918335332415</v>
+      </c>
+      <c r="D31">
+        <v>2.730358335332415</v>
+      </c>
+      <c r="E31">
+        <v>0.01143999999999989</v>
+      </c>
+      <c r="F31">
+        <v>0.6774399999999999</v>
+      </c>
+      <c r="G31">
+        <v>0.036</v>
+      </c>
+      <c r="H31">
+        <v>1.67</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.196</v>
+      </c>
+      <c r="K31">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L31">
+        <v>0.174</v>
+      </c>
+      <c r="M31">
+        <v>0.010974528</v>
+      </c>
+      <c r="N31">
+        <v>0.163025472</v>
+      </c>
+      <c r="O31">
+        <v>0.04564713216</v>
+      </c>
+      <c r="P31">
+        <v>0.11737833984</v>
+      </c>
+      <c r="Q31">
+        <v>0.13937833984</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.1263840761363426</v>
+      </c>
+      <c r="T31">
+        <v>0.9772742115022879</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.28</v>
+      </c>
+      <c r="W31">
+        <v>0.011664</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>15.85489599188229</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.0928855602046493</v>
+      </c>
+      <c r="C32">
+        <v>2.073061383972247</v>
+      </c>
+      <c r="D32">
+        <v>2.737861383972247</v>
+      </c>
+      <c r="E32">
+        <v>0.03479999999999994</v>
+      </c>
+      <c r="F32">
+        <v>0.7008</v>
+      </c>
+      <c r="G32">
+        <v>0.036</v>
+      </c>
+      <c r="H32">
+        <v>1.67</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.196</v>
+      </c>
+      <c r="K32">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L32">
+        <v>0.174</v>
+      </c>
+      <c r="M32">
+        <v>0.01135296</v>
+      </c>
+      <c r="N32">
+        <v>0.16264704</v>
+      </c>
+      <c r="O32">
+        <v>0.0455411712</v>
+      </c>
+      <c r="P32">
+        <v>0.1171058688</v>
+      </c>
+      <c r="Q32">
+        <v>0.1391058688</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.1276948002923562</v>
+      </c>
+      <c r="T32">
+        <v>0.9882145285661857</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.28</v>
+      </c>
+      <c r="W32">
+        <v>0.011664</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>15.32639945881955</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.09265586635249533</v>
+      </c>
+      <c r="C33">
+        <v>2.057245783130537</v>
+      </c>
+      <c r="D33">
+        <v>2.745405783130537</v>
+      </c>
+      <c r="E33">
+        <v>0.05815999999999988</v>
+      </c>
+      <c r="F33">
+        <v>0.7241599999999999</v>
+      </c>
+      <c r="G33">
+        <v>0.036</v>
+      </c>
+      <c r="H33">
+        <v>1.67</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.196</v>
+      </c>
+      <c r="K33">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L33">
+        <v>0.174</v>
+      </c>
+      <c r="M33">
+        <v>0.011731392</v>
+      </c>
+      <c r="N33">
+        <v>0.162268608</v>
+      </c>
+      <c r="O33">
+        <v>0.04543521024</v>
+      </c>
+      <c r="P33">
+        <v>0.11683339776</v>
+      </c>
+      <c r="Q33">
+        <v>0.13883339776</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.1290435164528918</v>
+      </c>
+      <c r="T33">
+        <v>0.9994719562696167</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.28</v>
+      </c>
+      <c r="W33">
+        <v>0.011664</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>14.83199947627698</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.09242617250034139</v>
+      </c>
+      <c r="C34">
+        <v>2.041471875585958</v>
+      </c>
+      <c r="D34">
+        <v>2.752991875585958</v>
+      </c>
+      <c r="E34">
+        <v>0.08151999999999993</v>
+      </c>
+      <c r="F34">
+        <v>0.74752</v>
+      </c>
+      <c r="G34">
+        <v>0.036</v>
+      </c>
+      <c r="H34">
+        <v>1.67</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.196</v>
+      </c>
+      <c r="K34">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0.174</v>
+      </c>
+      <c r="M34">
+        <v>0.012109824</v>
+      </c>
+      <c r="N34">
+        <v>0.161890176</v>
+      </c>
+      <c r="O34">
+        <v>0.04532924928</v>
+      </c>
+      <c r="P34">
+        <v>0.11656092672</v>
+      </c>
+      <c r="Q34">
+        <v>0.13856092672</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.1304319007357962</v>
+      </c>
+      <c r="T34">
+        <v>1.011060484787855</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.28</v>
+      </c>
+      <c r="W34">
+        <v>0.011664</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>14.36849949264333</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.09219647864818743</v>
+      </c>
+      <c r="C35">
+        <v>2.025740007916351</v>
+      </c>
+      <c r="D35">
+        <v>2.760620007916351</v>
+      </c>
+      <c r="E35">
+        <v>0.10488</v>
+      </c>
+      <c r="F35">
+        <v>0.77088</v>
+      </c>
+      <c r="G35">
+        <v>0.036</v>
+      </c>
+      <c r="H35">
+        <v>1.67</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.196</v>
+      </c>
+      <c r="K35">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L35">
+        <v>0.174</v>
+      </c>
+      <c r="M35">
+        <v>0.012488256</v>
+      </c>
+      <c r="N35">
+        <v>0.161511744</v>
+      </c>
+      <c r="O35">
+        <v>0.04522328832</v>
+      </c>
+      <c r="P35">
+        <v>0.11628845568</v>
+      </c>
+      <c r="Q35">
+        <v>0.13828845568</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.1318617293256529</v>
+      </c>
+      <c r="T35">
+        <v>1.022994939530517</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.28</v>
+      </c>
+      <c r="W35">
+        <v>0.011664</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>13.93309041710868</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0923584647960335</v>
+      </c>
+      <c r="C36">
+        <v>1.996996062982534</v>
+      </c>
+      <c r="D36">
+        <v>2.755236062982534</v>
+      </c>
+      <c r="E36">
+        <v>0.12824</v>
+      </c>
+      <c r="F36">
+        <v>0.7942400000000001</v>
+      </c>
+      <c r="G36">
+        <v>0.036</v>
+      </c>
+      <c r="H36">
+        <v>1.67</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.196</v>
+      </c>
+      <c r="K36">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L36">
+        <v>0.174</v>
+      </c>
+      <c r="M36">
+        <v>0.014137472</v>
+      </c>
+      <c r="N36">
+        <v>0.159862528</v>
+      </c>
+      <c r="O36">
+        <v>0.04476150784</v>
+      </c>
+      <c r="P36">
+        <v>0.11510102016</v>
+      </c>
+      <c r="Q36">
+        <v>0.13710102016</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.1333348860545962</v>
+      </c>
+      <c r="T36">
+        <v>1.035291044416897</v>
+      </c>
+      <c r="U36">
+        <v>0.0178</v>
+      </c>
+      <c r="V36">
+        <v>0.28</v>
+      </c>
+      <c r="W36">
+        <v>0.012816</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>12.30771668371827</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.09214029094387956</v>
+      </c>
+      <c r="C37">
+        <v>1.980892440991414</v>
+      </c>
+      <c r="D37">
+        <v>2.762492440991414</v>
+      </c>
+      <c r="E37">
+        <v>0.1516</v>
+      </c>
+      <c r="F37">
+        <v>0.8176</v>
+      </c>
+      <c r="G37">
+        <v>0.036</v>
+      </c>
+      <c r="H37">
+        <v>1.67</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.196</v>
+      </c>
+      <c r="K37">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L37">
+        <v>0.174</v>
+      </c>
+      <c r="M37">
+        <v>0.01455328</v>
+      </c>
+      <c r="N37">
+        <v>0.15944672</v>
+      </c>
+      <c r="O37">
+        <v>0.0446450816</v>
+      </c>
+      <c r="P37">
+        <v>0.1148016384</v>
+      </c>
+      <c r="Q37">
+        <v>0.1368016384</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1348533706828916</v>
+      </c>
+      <c r="T37">
+        <v>1.047965490992089</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.28</v>
+      </c>
+      <c r="W37">
+        <v>0.012816</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>11.95606763561204</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.09192211709172561</v>
+      </c>
+      <c r="C38">
+        <v>1.964827141715775</v>
+      </c>
+      <c r="D38">
+        <v>2.769787141715775</v>
+      </c>
+      <c r="E38">
+        <v>0.1749599999999999</v>
+      </c>
+      <c r="F38">
+        <v>0.8409599999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.036</v>
+      </c>
+      <c r="H38">
+        <v>1.67</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.196</v>
+      </c>
+      <c r="K38">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L38">
+        <v>0.174</v>
+      </c>
+      <c r="M38">
+        <v>0.014969088</v>
+      </c>
+      <c r="N38">
+        <v>0.159030912</v>
+      </c>
+      <c r="O38">
+        <v>0.04452865536</v>
+      </c>
+      <c r="P38">
+        <v>0.11450225664</v>
+      </c>
+      <c r="Q38">
+        <v>0.13650225664</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1364193079558213</v>
+      </c>
+      <c r="T38">
+        <v>1.061036014022755</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.28</v>
+      </c>
+      <c r="W38">
+        <v>0.012816</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>11.62395464573393</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.09170394323957165</v>
+      </c>
+      <c r="C39">
+        <v>1.948800469546918</v>
+      </c>
+      <c r="D39">
+        <v>2.777120469546918</v>
+      </c>
+      <c r="E39">
+        <v>0.1983199999999999</v>
+      </c>
+      <c r="F39">
+        <v>0.86432</v>
+      </c>
+      <c r="G39">
+        <v>0.036</v>
+      </c>
+      <c r="H39">
+        <v>1.67</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.196</v>
+      </c>
+      <c r="K39">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L39">
+        <v>0.174</v>
+      </c>
+      <c r="M39">
+        <v>0.015384896</v>
+      </c>
+      <c r="N39">
+        <v>0.158615104</v>
+      </c>
+      <c r="O39">
+        <v>0.04441222912</v>
+      </c>
+      <c r="P39">
+        <v>0.11420287488</v>
+      </c>
+      <c r="Q39">
+        <v>0.13620287488</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1380349575231296</v>
+      </c>
+      <c r="T39">
+        <v>1.07452147429249</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.28</v>
+      </c>
+      <c r="W39">
+        <v>0.012816</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>11.30979370936274</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.09148576938741772</v>
+      </c>
+      <c r="C40">
+        <v>1.932812732108341</v>
+      </c>
+      <c r="D40">
+        <v>2.784492732108341</v>
+      </c>
+      <c r="E40">
+        <v>0.2216799999999999</v>
+      </c>
+      <c r="F40">
+        <v>0.8876799999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.036</v>
+      </c>
+      <c r="H40">
+        <v>1.67</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.196</v>
+      </c>
+      <c r="K40">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L40">
+        <v>0.174</v>
+      </c>
+      <c r="M40">
+        <v>0.015800704</v>
+      </c>
+      <c r="N40">
+        <v>0.158199296</v>
+      </c>
+      <c r="O40">
+        <v>0.04429580288</v>
+      </c>
+      <c r="P40">
+        <v>0.11390349312</v>
+      </c>
+      <c r="Q40">
+        <v>0.13590349312</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1397027248184157</v>
+      </c>
+      <c r="T40">
+        <v>1.088441949409636</v>
+      </c>
+      <c r="U40">
+        <v>0.0178</v>
+      </c>
+      <c r="V40">
+        <v>0.28</v>
+      </c>
+      <c r="W40">
+        <v>0.012816</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>11.01216755911635</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.09126759553526376</v>
+      </c>
+      <c r="C41">
+        <v>1.916864240298763</v>
+      </c>
+      <c r="D41">
+        <v>2.791904240298762</v>
+      </c>
+      <c r="E41">
+        <v>0.2450399999999999</v>
+      </c>
+      <c r="F41">
+        <v>0.91104</v>
+      </c>
+      <c r="G41">
+        <v>0.036</v>
+      </c>
+      <c r="H41">
+        <v>1.67</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.196</v>
+      </c>
+      <c r="K41">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L41">
+        <v>0.174</v>
+      </c>
+      <c r="M41">
+        <v>0.016216512</v>
+      </c>
+      <c r="N41">
+        <v>0.157783488</v>
+      </c>
+      <c r="O41">
+        <v>0.04417937664</v>
+      </c>
+      <c r="P41">
+        <v>0.11360411136</v>
+      </c>
+      <c r="Q41">
+        <v>0.13560411136</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1414251730086291</v>
+      </c>
+      <c r="T41">
+        <v>1.102818833547016</v>
+      </c>
+      <c r="U41">
+        <v>0.0178</v>
+      </c>
+      <c r="V41">
+        <v>0.28</v>
+      </c>
+      <c r="W41">
+        <v>0.012816</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>10.72980428836978</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.09168302168310981</v>
+      </c>
+      <c r="C42">
+        <v>1.87942573237314</v>
+      </c>
+      <c r="D42">
+        <v>2.77782573237314</v>
+      </c>
+      <c r="E42">
+        <v>0.2684</v>
+      </c>
+      <c r="F42">
+        <v>0.9344</v>
+      </c>
+      <c r="G42">
+        <v>0.036</v>
+      </c>
+      <c r="H42">
+        <v>1.67</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.196</v>
+      </c>
+      <c r="K42">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L42">
+        <v>0.174</v>
+      </c>
+      <c r="M42">
+        <v>0.018688</v>
+      </c>
+      <c r="N42">
+        <v>0.155312</v>
+      </c>
+      <c r="O42">
+        <v>0.04348736</v>
+      </c>
+      <c r="P42">
+        <v>0.11182464</v>
+      </c>
+      <c r="Q42">
+        <v>0.13382464</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1432050361385163</v>
+      </c>
+      <c r="T42">
+        <v>1.117674947155642</v>
+      </c>
+      <c r="U42">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0.28</v>
+      </c>
+      <c r="W42">
+        <v>0.0144</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>9.310787671232879</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.09148068783095586</v>
+      </c>
+      <c r="C43">
+        <v>1.862904908289987</v>
+      </c>
+      <c r="D43">
+        <v>2.784664908289987</v>
+      </c>
+      <c r="E43">
+        <v>0.29176</v>
+      </c>
+      <c r="F43">
+        <v>0.9577600000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.036</v>
+      </c>
+      <c r="H43">
+        <v>1.67</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0.196</v>
+      </c>
+      <c r="K43">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L43">
+        <v>0.174</v>
+      </c>
+      <c r="M43">
+        <v>0.0191552</v>
+      </c>
+      <c r="N43">
+        <v>0.1548448</v>
+      </c>
+      <c r="O43">
+        <v>0.043356544</v>
+      </c>
+      <c r="P43">
+        <v>0.111488256</v>
+      </c>
+      <c r="Q43">
+        <v>0.133488256</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1450452336117896</v>
+      </c>
+      <c r="T43">
+        <v>1.133034657835747</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.28</v>
+      </c>
+      <c r="W43">
+        <v>0.0144</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>9.083695289007686</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.09127835397880192</v>
+      </c>
+      <c r="C44">
+        <v>1.846417844260352</v>
+      </c>
+      <c r="D44">
+        <v>2.791537844260352</v>
+      </c>
+      <c r="E44">
+        <v>0.3151199999999998</v>
+      </c>
+      <c r="F44">
+        <v>0.9811199999999999</v>
+      </c>
+      <c r="G44">
+        <v>0.036</v>
+      </c>
+      <c r="H44">
+        <v>1.67</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.196</v>
+      </c>
+      <c r="K44">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L44">
+        <v>0.174</v>
+      </c>
+      <c r="M44">
+        <v>0.01962239999999999</v>
+      </c>
+      <c r="N44">
+        <v>0.1543776</v>
+      </c>
+      <c r="O44">
+        <v>0.043225728</v>
+      </c>
+      <c r="P44">
+        <v>0.111151872</v>
+      </c>
+      <c r="Q44">
+        <v>0.133151872</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1469488861703481</v>
+      </c>
+      <c r="T44">
+        <v>1.148924013711718</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.28</v>
+      </c>
+      <c r="W44">
+        <v>0.0144</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>8.867416829745599</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.09107602012664798</v>
+      </c>
+      <c r="C45">
+        <v>1.829964790876096</v>
+      </c>
+      <c r="D45">
+        <v>2.798444790876096</v>
+      </c>
+      <c r="E45">
+        <v>0.3384799999999998</v>
+      </c>
+      <c r="F45">
+        <v>1.00448</v>
+      </c>
+      <c r="G45">
+        <v>0.036</v>
+      </c>
+      <c r="H45">
+        <v>1.67</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.196</v>
+      </c>
+      <c r="K45">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L45">
+        <v>0.174</v>
+      </c>
+      <c r="M45">
+        <v>0.02008959999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.1539104</v>
+      </c>
+      <c r="O45">
+        <v>0.04309491200000001</v>
+      </c>
+      <c r="P45">
+        <v>0.110815488</v>
+      </c>
+      <c r="Q45">
+        <v>0.132815488</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1489193335555228</v>
+      </c>
+      <c r="T45">
+        <v>1.165370890846495</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.28</v>
+      </c>
+      <c r="W45">
+        <v>0.0144</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>8.661197833705005</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.09087368627449402</v>
+      </c>
+      <c r="C46">
+        <v>1.813546001215332</v>
+      </c>
+      <c r="D46">
+        <v>2.805386001215332</v>
+      </c>
+      <c r="E46">
+        <v>0.3618399999999998</v>
+      </c>
+      <c r="F46">
+        <v>1.02784</v>
+      </c>
+      <c r="G46">
+        <v>0.036</v>
+      </c>
+      <c r="H46">
+        <v>1.67</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.196</v>
+      </c>
+      <c r="K46">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L46">
+        <v>0.174</v>
+      </c>
+      <c r="M46">
+        <v>0.02055679999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.1534432</v>
+      </c>
+      <c r="O46">
+        <v>0.04296409600000001</v>
+      </c>
+      <c r="P46">
+        <v>0.110479104</v>
+      </c>
+      <c r="Q46">
+        <v>0.132479104</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1509601540615965</v>
+      </c>
+      <c r="T46">
+        <v>1.182405156450371</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.28</v>
+      </c>
+      <c r="W46">
+        <v>0.0144</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.464352428393527</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.09067135242234006</v>
+      </c>
+      <c r="C47">
+        <v>1.797161730873339</v>
+      </c>
+      <c r="D47">
+        <v>2.812361730873339</v>
+      </c>
+      <c r="E47">
+        <v>0.3851999999999999</v>
+      </c>
+      <c r="F47">
+        <v>1.0512</v>
+      </c>
+      <c r="G47">
+        <v>0.036</v>
+      </c>
+      <c r="H47">
+        <v>1.67</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0.196</v>
+      </c>
+      <c r="K47">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L47">
+        <v>0.174</v>
+      </c>
+      <c r="M47">
+        <v>0.02102399999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.152976</v>
+      </c>
+      <c r="O47">
+        <v>0.04283328</v>
+      </c>
+      <c r="P47">
+        <v>0.11014272</v>
+      </c>
+      <c r="Q47">
+        <v>0.13214272</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1530751862224365</v>
+      </c>
+      <c r="T47">
+        <v>1.200058849894387</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.28</v>
+      </c>
+      <c r="W47">
+        <v>0.0144</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>8.276255707762559</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.09046901857018612</v>
+      </c>
+      <c r="C48">
+        <v>1.780812237993934</v>
+      </c>
+      <c r="D48">
+        <v>2.819372237993933</v>
+      </c>
+      <c r="E48">
+        <v>0.4085599999999999</v>
+      </c>
+      <c r="F48">
+        <v>1.07456</v>
+      </c>
+      <c r="G48">
+        <v>0.036</v>
+      </c>
+      <c r="H48">
+        <v>1.67</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.196</v>
+      </c>
+      <c r="K48">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L48">
+        <v>0.174</v>
+      </c>
+      <c r="M48">
+        <v>0.0214912</v>
+      </c>
+      <c r="N48">
+        <v>0.1525088</v>
+      </c>
+      <c r="O48">
+        <v>0.042702464</v>
+      </c>
+      <c r="P48">
+        <v>0.109806336</v>
+      </c>
+      <c r="Q48">
+        <v>0.131806336</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.155268552907752</v>
+      </c>
+      <c r="T48">
+        <v>1.218366383836331</v>
+      </c>
+      <c r="U48">
+        <v>0.02</v>
+      </c>
+      <c r="V48">
+        <v>0.28</v>
+      </c>
+      <c r="W48">
+        <v>0.0144</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>8.096337105419895</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.09026668471803215</v>
+      </c>
+      <c r="C49">
+        <v>1.764497783301313</v>
+      </c>
+      <c r="D49">
+        <v>2.826417783301313</v>
+      </c>
+      <c r="E49">
+        <v>0.43192</v>
+      </c>
+      <c r="F49">
+        <v>1.09792</v>
+      </c>
+      <c r="G49">
+        <v>0.036</v>
+      </c>
+      <c r="H49">
+        <v>1.67</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.196</v>
+      </c>
+      <c r="K49">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L49">
+        <v>0.174</v>
+      </c>
+      <c r="M49">
+        <v>0.0219584</v>
+      </c>
+      <c r="N49">
+        <v>0.1520416</v>
+      </c>
+      <c r="O49">
+        <v>0.042571648</v>
+      </c>
+      <c r="P49">
+        <v>0.109469952</v>
+      </c>
+      <c r="Q49">
+        <v>0.131469952</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1575446881472305</v>
+      </c>
+      <c r="T49">
+        <v>1.237364768115706</v>
+      </c>
+      <c r="U49">
+        <v>0.02</v>
+      </c>
+      <c r="V49">
+        <v>0.28</v>
+      </c>
+      <c r="W49">
+        <v>0.0144</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>7.924074613815216</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.09044451086587819</v>
+      </c>
+      <c r="C50">
+        <v>1.734943760055074</v>
+      </c>
+      <c r="D50">
+        <v>2.820223760055073</v>
+      </c>
+      <c r="E50">
+        <v>0.4552799999999998</v>
+      </c>
+      <c r="F50">
+        <v>1.12128</v>
+      </c>
+      <c r="G50">
+        <v>0.036</v>
+      </c>
+      <c r="H50">
+        <v>1.67</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.196</v>
+      </c>
+      <c r="K50">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L50">
+        <v>0.174</v>
+      </c>
+      <c r="M50">
+        <v>0.023659008</v>
+      </c>
+      <c r="N50">
+        <v>0.150340992</v>
+      </c>
+      <c r="O50">
+        <v>0.04209547776</v>
+      </c>
+      <c r="P50">
+        <v>0.10824551424</v>
+      </c>
+      <c r="Q50">
+        <v>0.13024551424</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1599083670497657</v>
+      </c>
+      <c r="T50">
+        <v>1.257093859482749</v>
+      </c>
+      <c r="U50">
+        <v>0.0211</v>
+      </c>
+      <c r="V50">
+        <v>0.28</v>
+      </c>
+      <c r="W50">
+        <v>0.015192</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>7.35449263130559</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.09025009701372427</v>
+      </c>
+      <c r="C51">
+        <v>1.718356952248226</v>
+      </c>
+      <c r="D51">
+        <v>2.826996952248226</v>
+      </c>
+      <c r="E51">
+        <v>0.4786399999999998</v>
+      </c>
+      <c r="F51">
+        <v>1.14464</v>
+      </c>
+      <c r="G51">
+        <v>0.036</v>
+      </c>
+      <c r="H51">
+        <v>1.67</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0.196</v>
+      </c>
+      <c r="K51">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.174</v>
+      </c>
+      <c r="M51">
+        <v>0.024151904</v>
+      </c>
+      <c r="N51">
+        <v>0.149848096</v>
+      </c>
+      <c r="O51">
+        <v>0.04195746688</v>
+      </c>
+      <c r="P51">
+        <v>0.10789062912</v>
+      </c>
+      <c r="Q51">
+        <v>0.12989062912</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1623647392425966</v>
+      </c>
+      <c r="T51">
+        <v>1.277596640707324</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.28</v>
+      </c>
+      <c r="W51">
+        <v>0.015192</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>7.204400944952415</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.09005568316157031</v>
+      </c>
+      <c r="C52">
+        <v>1.701802756446731</v>
+      </c>
+      <c r="D52">
+        <v>2.833802756446731</v>
+      </c>
+      <c r="E52">
+        <v>0.5019999999999999</v>
+      </c>
+      <c r="F52">
+        <v>1.168</v>
+      </c>
+      <c r="G52">
+        <v>0.036</v>
+      </c>
+      <c r="H52">
+        <v>1.67</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.196</v>
+      </c>
+      <c r="K52">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L52">
+        <v>0.174</v>
+      </c>
+      <c r="M52">
+        <v>0.0246448</v>
+      </c>
+      <c r="N52">
+        <v>0.1493552</v>
+      </c>
+      <c r="O52">
+        <v>0.041819456</v>
+      </c>
+      <c r="P52">
+        <v>0.107535744</v>
+      </c>
+      <c r="Q52">
+        <v>0.129535744</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1649193663231406</v>
+      </c>
+      <c r="T52">
+        <v>1.298919533180882</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.28</v>
+      </c>
+      <c r="W52">
+        <v>0.015192</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>7.060312926053366</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.08986126930941636</v>
+      </c>
+      <c r="C53">
+        <v>1.685281408752584</v>
+      </c>
+      <c r="D53">
+        <v>2.840641408752584</v>
+      </c>
+      <c r="E53">
+        <v>0.5253599999999999</v>
+      </c>
+      <c r="F53">
+        <v>1.19136</v>
+      </c>
+      <c r="G53">
+        <v>0.036</v>
+      </c>
+      <c r="H53">
+        <v>1.67</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0.196</v>
+      </c>
+      <c r="K53">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L53">
+        <v>0.174</v>
+      </c>
+      <c r="M53">
+        <v>0.025137696</v>
+      </c>
+      <c r="N53">
+        <v>0.148862304</v>
+      </c>
+      <c r="O53">
+        <v>0.04168144512000001</v>
+      </c>
+      <c r="P53">
+        <v>0.10718085888</v>
+      </c>
+      <c r="Q53">
+        <v>0.12918085888</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1675782638967681</v>
+      </c>
+      <c r="T53">
+        <v>1.321112747796217</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.28</v>
+      </c>
+      <c r="W53">
+        <v>0.015192</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>6.921875417699378</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.08966685545726241</v>
+      </c>
+      <c r="C54">
+        <v>1.668793147552384</v>
+      </c>
+      <c r="D54">
+        <v>2.847513147552384</v>
+      </c>
+      <c r="E54">
+        <v>0.54872</v>
+      </c>
+      <c r="F54">
+        <v>1.21472</v>
+      </c>
+      <c r="G54">
+        <v>0.036</v>
+      </c>
+      <c r="H54">
+        <v>1.67</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0.196</v>
+      </c>
+      <c r="K54">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L54">
+        <v>0.174</v>
+      </c>
+      <c r="M54">
+        <v>0.025630592</v>
+      </c>
+      <c r="N54">
+        <v>0.148369408</v>
+      </c>
+      <c r="O54">
+        <v>0.04154343424</v>
+      </c>
+      <c r="P54">
+        <v>0.10682597376</v>
+      </c>
+      <c r="Q54">
+        <v>0.12882597376</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1703479488692967</v>
+      </c>
+      <c r="T54">
+        <v>1.344230679687191</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.28</v>
+      </c>
+      <c r="W54">
+        <v>0.015192</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>6.788762428897466</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.08947244160510848</v>
+      </c>
+      <c r="C55">
+        <v>1.652338213545027</v>
+      </c>
+      <c r="D55">
+        <v>2.854418213545027</v>
+      </c>
+      <c r="E55">
+        <v>0.57208</v>
+      </c>
+      <c r="F55">
+        <v>1.23808</v>
+      </c>
+      <c r="G55">
+        <v>0.036</v>
+      </c>
+      <c r="H55">
+        <v>1.67</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.196</v>
+      </c>
+      <c r="K55">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.174</v>
+      </c>
+      <c r="M55">
+        <v>0.026123488</v>
+      </c>
+      <c r="N55">
+        <v>0.147876512</v>
+      </c>
+      <c r="O55">
+        <v>0.04140542336</v>
+      </c>
+      <c r="P55">
+        <v>0.10647108864</v>
+      </c>
+      <c r="Q55">
+        <v>0.12847108864</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1732354927768265</v>
+      </c>
+      <c r="T55">
+        <v>1.368332353360761</v>
+      </c>
+      <c r="U55">
+        <v>0.0211</v>
+      </c>
+      <c r="V55">
+        <v>0.28</v>
+      </c>
+      <c r="W55">
+        <v>0.015192</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>6.660672571748457</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.08927802775295451</v>
+      </c>
+      <c r="C56">
+        <v>1.635916849769815</v>
+      </c>
+      <c r="D56">
+        <v>2.861356849769815</v>
+      </c>
+      <c r="E56">
+        <v>0.5954399999999999</v>
+      </c>
+      <c r="F56">
+        <v>1.26144</v>
+      </c>
+      <c r="G56">
+        <v>0.036</v>
+      </c>
+      <c r="H56">
+        <v>1.67</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.196</v>
+      </c>
+      <c r="K56">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L56">
+        <v>0.174</v>
+      </c>
+      <c r="M56">
+        <v>0.026616384</v>
+      </c>
+      <c r="N56">
+        <v>0.147383616</v>
+      </c>
+      <c r="O56">
+        <v>0.04126741248</v>
+      </c>
+      <c r="P56">
+        <v>0.10611620352</v>
+      </c>
+      <c r="Q56">
+        <v>0.12811620352</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1762485820716403</v>
+      </c>
+      <c r="T56">
+        <v>1.393481925889702</v>
+      </c>
+      <c r="U56">
+        <v>0.0211</v>
+      </c>
+      <c r="V56">
+        <v>0.28</v>
+      </c>
+      <c r="W56">
+        <v>0.015192</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>6.537326783382746</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.08967761390080056</v>
+      </c>
+      <c r="C57">
+        <v>1.598332011463175</v>
+      </c>
+      <c r="D57">
+        <v>2.847132011463175</v>
+      </c>
+      <c r="E57">
+        <v>0.6187999999999999</v>
+      </c>
+      <c r="F57">
+        <v>1.2848</v>
+      </c>
+      <c r="G57">
+        <v>0.036</v>
+      </c>
+      <c r="H57">
+        <v>1.67</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.196</v>
+      </c>
+      <c r="K57">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.174</v>
+      </c>
+      <c r="M57">
+        <v>0.02903648</v>
+      </c>
+      <c r="N57">
+        <v>0.14496352</v>
+      </c>
+      <c r="O57">
+        <v>0.0405897856</v>
+      </c>
+      <c r="P57">
+        <v>0.1043737344</v>
+      </c>
+      <c r="Q57">
+        <v>0.1263737344</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1793955864462235</v>
+      </c>
+      <c r="T57">
+        <v>1.419749257197708</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.28</v>
+      </c>
+      <c r="W57">
+        <v>0.016272</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>5.992461896207804</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.0894940000486466</v>
+      </c>
+      <c r="C58">
+        <v>1.581490864194034</v>
+      </c>
+      <c r="D58">
+        <v>2.853650864194034</v>
+      </c>
+      <c r="E58">
+        <v>0.64216</v>
+      </c>
+      <c r="F58">
+        <v>1.30816</v>
+      </c>
+      <c r="G58">
+        <v>0.036</v>
+      </c>
+      <c r="H58">
+        <v>1.67</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.196</v>
+      </c>
+      <c r="K58">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0.174</v>
+      </c>
+      <c r="M58">
+        <v>0.029564416</v>
+      </c>
+      <c r="N58">
+        <v>0.144435584</v>
+      </c>
+      <c r="O58">
+        <v>0.04044196352</v>
+      </c>
+      <c r="P58">
+        <v>0.10399362048</v>
+      </c>
+      <c r="Q58">
+        <v>0.12599362048</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1826856364741969</v>
+      </c>
+      <c r="T58">
+        <v>1.447210558110623</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.28</v>
+      </c>
+      <c r="W58">
+        <v>0.016272</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>5.885453648061236</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.08931038619649266</v>
+      </c>
+      <c r="C59">
+        <v>1.564679636832005</v>
+      </c>
+      <c r="D59">
+        <v>2.860199636832005</v>
+      </c>
+      <c r="E59">
+        <v>0.66552</v>
+      </c>
+      <c r="F59">
+        <v>1.33152</v>
+      </c>
+      <c r="G59">
+        <v>0.036</v>
+      </c>
+      <c r="H59">
+        <v>1.67</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0.196</v>
+      </c>
+      <c r="K59">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.174</v>
+      </c>
+      <c r="M59">
+        <v>0.030092352</v>
+      </c>
+      <c r="N59">
+        <v>0.143907648</v>
+      </c>
+      <c r="O59">
+        <v>0.04029414144</v>
+      </c>
+      <c r="P59">
+        <v>0.10361350656</v>
+      </c>
+      <c r="Q59">
+        <v>0.12561350656</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1861287120848667</v>
+      </c>
+      <c r="T59">
+        <v>1.475949128833441</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.28</v>
+      </c>
+      <c r="W59">
+        <v>0.016272</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.782200075288233</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.08912677234433872</v>
+      </c>
+      <c r="C60">
+        <v>1.547898535838251</v>
+      </c>
+      <c r="D60">
+        <v>2.866778535838251</v>
+      </c>
+      <c r="E60">
+        <v>0.6888799999999998</v>
+      </c>
+      <c r="F60">
+        <v>1.35488</v>
+      </c>
+      <c r="G60">
+        <v>0.036</v>
+      </c>
+      <c r="H60">
+        <v>1.67</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0.196</v>
+      </c>
+      <c r="K60">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L60">
+        <v>0.174</v>
+      </c>
+      <c r="M60">
+        <v>0.030620288</v>
+      </c>
+      <c r="N60">
+        <v>0.143379712</v>
+      </c>
+      <c r="O60">
+        <v>0.04014631936</v>
+      </c>
+      <c r="P60">
+        <v>0.10323339264</v>
+      </c>
+      <c r="Q60">
+        <v>0.12523339264</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1897357436769969</v>
+      </c>
+      <c r="T60">
+        <v>1.506056202924012</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.28</v>
+      </c>
+      <c r="W60">
+        <v>0.016272</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.682506970541884</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.08894315849218476</v>
+      </c>
+      <c r="C61">
+        <v>1.531147769577885</v>
+      </c>
+      <c r="D61">
+        <v>2.873387769577885</v>
+      </c>
+      <c r="E61">
+        <v>0.7122399999999999</v>
+      </c>
+      <c r="F61">
+        <v>1.37824</v>
+      </c>
+      <c r="G61">
+        <v>0.036</v>
+      </c>
+      <c r="H61">
+        <v>1.67</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0.196</v>
+      </c>
+      <c r="K61">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L61">
+        <v>0.174</v>
+      </c>
+      <c r="M61">
+        <v>0.031148224</v>
+      </c>
+      <c r="N61">
+        <v>0.142851776</v>
+      </c>
+      <c r="O61">
+        <v>0.03999849728</v>
+      </c>
+      <c r="P61">
+        <v>0.10285327872</v>
+      </c>
+      <c r="Q61">
+        <v>0.12485327872</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1935187280297189</v>
+      </c>
+      <c r="T61">
+        <v>1.537631914775099</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.28</v>
+      </c>
+      <c r="W61">
+        <v>0.016272</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.586193293075072</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.08875954464003082</v>
+      </c>
+      <c r="C62">
+        <v>1.514427548341964</v>
+      </c>
+      <c r="D62">
+        <v>2.880027548341964</v>
+      </c>
+      <c r="E62">
+        <v>0.7355999999999999</v>
+      </c>
+      <c r="F62">
+        <v>1.4016</v>
+      </c>
+      <c r="G62">
+        <v>0.036</v>
+      </c>
+      <c r="H62">
+        <v>1.67</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0.196</v>
+      </c>
+      <c r="K62">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L62">
+        <v>0.174</v>
+      </c>
+      <c r="M62">
+        <v>0.03167615999999999</v>
+      </c>
+      <c r="N62">
+        <v>0.14232384</v>
+      </c>
+      <c r="O62">
+        <v>0.0398506752</v>
+      </c>
+      <c r="P62">
+        <v>0.1024731648</v>
+      </c>
+      <c r="Q62">
+        <v>0.1244731648</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.197490861600077</v>
+      </c>
+      <c r="T62">
+        <v>1.57078641221874</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.28</v>
+      </c>
+      <c r="W62">
+        <v>0.016272</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.493090071523821</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.08857593078787687</v>
+      </c>
+      <c r="C63">
+        <v>1.497738084369797</v>
+      </c>
+      <c r="D63">
+        <v>2.886698084369797</v>
+      </c>
+      <c r="E63">
+        <v>0.7589599999999997</v>
+      </c>
+      <c r="F63">
+        <v>1.42496</v>
+      </c>
+      <c r="G63">
+        <v>0.036</v>
+      </c>
+      <c r="H63">
+        <v>1.67</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.196</v>
+      </c>
+      <c r="K63">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L63">
+        <v>0.174</v>
+      </c>
+      <c r="M63">
+        <v>0.03220409599999999</v>
+      </c>
+      <c r="N63">
+        <v>0.141795904</v>
+      </c>
+      <c r="O63">
+        <v>0.03970285312000001</v>
+      </c>
+      <c r="P63">
+        <v>0.10209305088</v>
+      </c>
+      <c r="Q63">
+        <v>0.12409305088</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.2016666943278894</v>
+      </c>
+      <c r="T63">
+        <v>1.605641140300517</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.28</v>
+      </c>
+      <c r="W63">
+        <v>0.016272</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.403039414613596</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.0883923169357229</v>
+      </c>
+      <c r="C64">
+        <v>1.481079591871561</v>
+      </c>
+      <c r="D64">
+        <v>2.893399591871561</v>
+      </c>
+      <c r="E64">
+        <v>0.7823199999999998</v>
+      </c>
+      <c r="F64">
+        <v>1.44832</v>
+      </c>
+      <c r="G64">
+        <v>0.036</v>
+      </c>
+      <c r="H64">
+        <v>1.67</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0.196</v>
+      </c>
+      <c r="K64">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L64">
+        <v>0.174</v>
+      </c>
+      <c r="M64">
+        <v>0.03273203199999999</v>
+      </c>
+      <c r="N64">
+        <v>0.141267968</v>
+      </c>
+      <c r="O64">
+        <v>0.03955503104</v>
+      </c>
+      <c r="P64">
+        <v>0.10171293696</v>
+      </c>
+      <c r="Q64">
+        <v>0.12371293696</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.2060623077255866</v>
+      </c>
+      <c r="T64">
+        <v>1.642330327755019</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.28</v>
+      </c>
+      <c r="W64">
+        <v>0.016272</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.315893617603698</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.08820870308356896</v>
+      </c>
+      <c r="C65">
+        <v>1.464452287051224</v>
+      </c>
+      <c r="D65">
+        <v>2.900132287051223</v>
+      </c>
+      <c r="E65">
+        <v>0.8056799999999998</v>
+      </c>
+      <c r="F65">
+        <v>1.47168</v>
+      </c>
+      <c r="G65">
+        <v>0.036</v>
+      </c>
+      <c r="H65">
+        <v>1.67</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0.196</v>
+      </c>
+      <c r="K65">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.174</v>
+      </c>
+      <c r="M65">
+        <v>0.03325996799999999</v>
+      </c>
+      <c r="N65">
+        <v>0.140740032</v>
+      </c>
+      <c r="O65">
+        <v>0.03940720896</v>
+      </c>
+      <c r="P65">
+        <v>0.10133282304</v>
+      </c>
+      <c r="Q65">
+        <v>0.12333282304</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.2106955218474837</v>
+      </c>
+      <c r="T65">
+        <v>1.681002714531386</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.28</v>
+      </c>
+      <c r="W65">
+        <v>0.016272</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.231514353832211</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.088025089231415</v>
+      </c>
+      <c r="C66">
+        <v>1.447856388129804</v>
+      </c>
+      <c r="D66">
+        <v>2.906896388129804</v>
+      </c>
+      <c r="E66">
+        <v>0.8290399999999999</v>
+      </c>
+      <c r="F66">
+        <v>1.49504</v>
+      </c>
+      <c r="G66">
+        <v>0.036</v>
+      </c>
+      <c r="H66">
+        <v>1.67</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0.196</v>
+      </c>
+      <c r="K66">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L66">
+        <v>0.174</v>
+      </c>
+      <c r="M66">
+        <v>0.03378790399999999</v>
+      </c>
+      <c r="N66">
+        <v>0.140212096</v>
+      </c>
+      <c r="O66">
+        <v>0.03925938688</v>
+      </c>
+      <c r="P66">
+        <v>0.10095270912</v>
+      </c>
+      <c r="Q66">
+        <v>0.12295270912</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.2155861367539306</v>
+      </c>
+      <c r="T66">
+        <v>1.721823567239773</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.28</v>
+      </c>
+      <c r="W66">
+        <v>0.016272</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>5.149771942053583</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.08784147537926106</v>
+      </c>
+      <c r="C67">
+        <v>1.431292115368941</v>
+      </c>
+      <c r="D67">
+        <v>2.913692115368941</v>
+      </c>
+      <c r="E67">
+        <v>0.8523999999999999</v>
+      </c>
+      <c r="F67">
+        <v>1.5184</v>
+      </c>
+      <c r="G67">
+        <v>0.036</v>
+      </c>
+      <c r="H67">
+        <v>1.67</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0.196</v>
+      </c>
+      <c r="K67">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.174</v>
+      </c>
+      <c r="M67">
+        <v>0.03431584</v>
+      </c>
+      <c r="N67">
+        <v>0.13968416</v>
+      </c>
+      <c r="O67">
+        <v>0.03911156480000001</v>
+      </c>
+      <c r="P67">
+        <v>0.1005725952</v>
+      </c>
+      <c r="Q67">
+        <v>0.1225725952</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.2207562153693173</v>
+      </c>
+      <c r="T67">
+        <v>1.764977040102925</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.28</v>
+      </c>
+      <c r="W67">
+        <v>0.016272</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>5.070544681406604</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.0876578615271071</v>
+      </c>
+      <c r="C68">
+        <v>1.414759691094811</v>
+      </c>
+      <c r="D68">
+        <v>2.920519691094811</v>
+      </c>
+      <c r="E68">
+        <v>0.87576</v>
+      </c>
+      <c r="F68">
+        <v>1.54176</v>
+      </c>
+      <c r="G68">
+        <v>0.036</v>
+      </c>
+      <c r="H68">
+        <v>1.67</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0.196</v>
+      </c>
+      <c r="K68">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L68">
+        <v>0.174</v>
+      </c>
+      <c r="M68">
+        <v>0.034843776</v>
+      </c>
+      <c r="N68">
+        <v>0.139156224</v>
+      </c>
+      <c r="O68">
+        <v>0.03896374272</v>
+      </c>
+      <c r="P68">
+        <v>0.10019248128</v>
+      </c>
+      <c r="Q68">
+        <v>0.12219248128</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.2262304162561974</v>
+      </c>
+      <c r="T68">
+        <v>1.810668952546263</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.28</v>
+      </c>
+      <c r="W68">
+        <v>0.016272</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>4.993718246839837</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.08747424767495315</v>
+      </c>
+      <c r="C69">
+        <v>1.398259339722362</v>
+      </c>
+      <c r="D69">
+        <v>2.927379339722362</v>
+      </c>
+      <c r="E69">
+        <v>0.89912</v>
+      </c>
+      <c r="F69">
+        <v>1.56512</v>
+      </c>
+      <c r="G69">
+        <v>0.036</v>
+      </c>
+      <c r="H69">
+        <v>1.67</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0.196</v>
+      </c>
+      <c r="K69">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L69">
+        <v>0.174</v>
+      </c>
+      <c r="M69">
+        <v>0.035371712</v>
+      </c>
+      <c r="N69">
+        <v>0.138628288</v>
+      </c>
+      <c r="O69">
+        <v>0.03881592064</v>
+      </c>
+      <c r="P69">
+        <v>0.09981236735999999</v>
+      </c>
+      <c r="Q69">
+        <v>0.12181236736</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.2320363868937975</v>
+      </c>
+      <c r="T69">
+        <v>1.859130071804349</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.28</v>
+      </c>
+      <c r="W69">
+        <v>0.016272</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>4.919185138678048</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.08729063382279921</v>
+      </c>
+      <c r="C70">
+        <v>1.381791287779914</v>
+      </c>
+      <c r="D70">
+        <v>2.934271287779914</v>
+      </c>
+      <c r="E70">
+        <v>0.9224800000000001</v>
+      </c>
+      <c r="F70">
+        <v>1.58848</v>
+      </c>
+      <c r="G70">
+        <v>0.036</v>
+      </c>
+      <c r="H70">
+        <v>1.67</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0.196</v>
+      </c>
+      <c r="K70">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L70">
+        <v>0.174</v>
+      </c>
+      <c r="M70">
+        <v>0.035899648</v>
+      </c>
+      <c r="N70">
+        <v>0.138100352</v>
+      </c>
+      <c r="O70">
+        <v>0.03866809856</v>
+      </c>
+      <c r="P70">
+        <v>0.09943225343999998</v>
+      </c>
+      <c r="Q70">
+        <v>0.12143225344</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.2382052306962476</v>
+      </c>
+      <c r="T70">
+        <v>1.910620011016064</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.28</v>
+      </c>
+      <c r="W70">
+        <v>0.016272</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>4.846844180756312</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.08710701997064527</v>
+      </c>
+      <c r="C71">
+        <v>1.365355763934087</v>
+      </c>
+      <c r="D71">
+        <v>2.941195763934087</v>
+      </c>
+      <c r="E71">
+        <v>0.9458399999999999</v>
+      </c>
+      <c r="F71">
+        <v>1.61184</v>
+      </c>
+      <c r="G71">
+        <v>0.036</v>
+      </c>
+      <c r="H71">
+        <v>1.67</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0.196</v>
+      </c>
+      <c r="K71">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L71">
+        <v>0.174</v>
+      </c>
+      <c r="M71">
+        <v>0.036427584</v>
+      </c>
+      <c r="N71">
+        <v>0.137572416</v>
+      </c>
+      <c r="O71">
+        <v>0.03852027648</v>
+      </c>
+      <c r="P71">
+        <v>0.09905213951999997</v>
+      </c>
+      <c r="Q71">
+        <v>0.12105213952</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.2447720644214364</v>
+      </c>
+      <c r="T71">
+        <v>1.965431881789826</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.28</v>
+      </c>
+      <c r="W71">
+        <v>0.016272</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>4.776600062194627</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.08692340611849128</v>
+      </c>
+      <c r="C72">
+        <v>1.348952999015095</v>
+      </c>
+      <c r="D72">
+        <v>2.948152999015095</v>
+      </c>
+      <c r="E72">
+        <v>0.9692</v>
+      </c>
+      <c r="F72">
+        <v>1.6352</v>
+      </c>
+      <c r="G72">
+        <v>0.036</v>
+      </c>
+      <c r="H72">
+        <v>1.67</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0.196</v>
+      </c>
+      <c r="K72">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L72">
+        <v>0.174</v>
+      </c>
+      <c r="M72">
+        <v>0.03695552</v>
+      </c>
+      <c r="N72">
+        <v>0.13704448</v>
+      </c>
+      <c r="O72">
+        <v>0.03837245440000001</v>
+      </c>
+      <c r="P72">
+        <v>0.09867202559999999</v>
+      </c>
+      <c r="Q72">
+        <v>0.1206720256</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2517766870616377</v>
+      </c>
+      <c r="T72">
+        <v>2.023897877281839</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.28</v>
+      </c>
+      <c r="W72">
+        <v>0.016272</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.708362918448989</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.08673979226633738</v>
+      </c>
+      <c r="C73">
+        <v>1.33258322604239</v>
+      </c>
+      <c r="D73">
+        <v>2.95514322604239</v>
+      </c>
+      <c r="E73">
+        <v>0.9925599999999998</v>
+      </c>
+      <c r="F73">
+        <v>1.65856</v>
+      </c>
+      <c r="G73">
+        <v>0.036</v>
+      </c>
+      <c r="H73">
+        <v>1.67</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0.196</v>
+      </c>
+      <c r="K73">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0.174</v>
+      </c>
+      <c r="M73">
+        <v>0.03748345599999999</v>
+      </c>
+      <c r="N73">
+        <v>0.136516544</v>
+      </c>
+      <c r="O73">
+        <v>0.03822463232</v>
+      </c>
+      <c r="P73">
+        <v>0.09829191167999998</v>
+      </c>
+      <c r="Q73">
+        <v>0.12029191168</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2592643871253013</v>
+      </c>
+      <c r="T73">
+        <v>2.08639601039399</v>
+      </c>
+      <c r="U73">
+        <v>0.0226</v>
+      </c>
+      <c r="V73">
+        <v>0.28</v>
+      </c>
+      <c r="W73">
+        <v>0.016272</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>4.64204794776661</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.08655617841418342</v>
+      </c>
+      <c r="C74">
+        <v>1.316246680250691</v>
+      </c>
+      <c r="D74">
+        <v>2.962166680250691</v>
+      </c>
+      <c r="E74">
+        <v>1.01592</v>
+      </c>
+      <c r="F74">
+        <v>1.68192</v>
+      </c>
+      <c r="G74">
+        <v>0.036</v>
+      </c>
+      <c r="H74">
+        <v>1.67</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0.196</v>
+      </c>
+      <c r="K74">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L74">
+        <v>0.174</v>
+      </c>
+      <c r="M74">
+        <v>0.03801139199999999</v>
+      </c>
+      <c r="N74">
+        <v>0.135988608</v>
+      </c>
+      <c r="O74">
+        <v>0.03807681024000001</v>
+      </c>
+      <c r="P74">
+        <v>0.09791179776</v>
+      </c>
+      <c r="Q74">
+        <v>0.11991179776</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2672869229077979</v>
+      </c>
+      <c r="T74">
+        <v>2.153358295871295</v>
+      </c>
+      <c r="U74">
+        <v>0.0226</v>
+      </c>
+      <c r="V74">
+        <v>0.28</v>
+      </c>
+      <c r="W74">
+        <v>0.016272</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>4.577575059603186</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.08637256456202944</v>
+      </c>
+      <c r="C75">
+        <v>1.299943599116356</v>
+      </c>
+      <c r="D75">
+        <v>2.969223599116356</v>
+      </c>
+      <c r="E75">
+        <v>1.03928</v>
+      </c>
+      <c r="F75">
+        <v>1.70528</v>
+      </c>
+      <c r="G75">
+        <v>0.036</v>
+      </c>
+      <c r="H75">
+        <v>1.67</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.196</v>
+      </c>
+      <c r="K75">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L75">
+        <v>0.174</v>
+      </c>
+      <c r="M75">
+        <v>0.038539328</v>
+      </c>
+      <c r="N75">
+        <v>0.135460672</v>
+      </c>
+      <c r="O75">
+        <v>0.03792898816</v>
+      </c>
+      <c r="P75">
+        <v>0.09753168383999999</v>
+      </c>
+      <c r="Q75">
+        <v>0.11953168384</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.275903720600109</v>
+      </c>
+      <c r="T75">
+        <v>2.225280750643215</v>
+      </c>
+      <c r="U75">
+        <v>0.0226</v>
+      </c>
+      <c r="V75">
+        <v>0.28</v>
+      </c>
+      <c r="W75">
+        <v>0.016272</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>4.514868551937388</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1353863750015525</v>
+      </c>
+      <c r="C76">
+        <v>0.122351330658677</v>
+      </c>
+      <c r="D76">
+        <v>1.814991330658677</v>
+      </c>
+      <c r="E76">
+        <v>1.06264</v>
+      </c>
+      <c r="F76">
+        <v>1.72864</v>
+      </c>
+      <c r="G76">
+        <v>0.036</v>
+      </c>
+      <c r="H76">
+        <v>1.67</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0.196</v>
+      </c>
+      <c r="K76">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L76">
+        <v>0.174</v>
+      </c>
+      <c r="M76">
+        <v>0.18842176</v>
+      </c>
+      <c r="N76">
+        <v>-0.01442176000000001</v>
+      </c>
+      <c r="O76">
+        <v>-0.004038092800000002</v>
+      </c>
+      <c r="P76">
+        <v>-0.0103836672</v>
+      </c>
+      <c r="Q76">
+        <v>0.01161633280000002</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2907020745581315</v>
+      </c>
+      <c r="T76">
+        <v>2.348799252672623</v>
+      </c>
+      <c r="U76">
+        <v>0.109</v>
+      </c>
+      <c r="V76">
+        <v>0.2585688616856142</v>
+      </c>
+      <c r="W76">
+        <v>0.08081599407626805</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.9234602203057651</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1363833750015525</v>
+      </c>
+      <c r="C77">
+        <v>0.08475228202903073</v>
+      </c>
+      <c r="D77">
+        <v>1.80075228202903</v>
+      </c>
+      <c r="E77">
+        <v>1.086</v>
+      </c>
+      <c r="F77">
+        <v>1.752</v>
+      </c>
+      <c r="G77">
+        <v>0.036</v>
+      </c>
+      <c r="H77">
+        <v>1.67</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0.196</v>
+      </c>
+      <c r="K77">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L77">
+        <v>0.174</v>
+      </c>
+      <c r="M77">
+        <v>0.190968</v>
+      </c>
+      <c r="N77">
+        <v>-0.01696799999999998</v>
+      </c>
+      <c r="O77">
+        <v>-0.004751039999999995</v>
+      </c>
+      <c r="P77">
+        <v>-0.01221695999999999</v>
+      </c>
+      <c r="Q77">
+        <v>0.009783040000000031</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.3019581575404567</v>
+      </c>
+      <c r="T77">
+        <v>2.442751222779528</v>
+      </c>
+      <c r="U77">
+        <v>0.109</v>
+      </c>
+      <c r="V77">
+        <v>0.2551212768631395</v>
+      </c>
+      <c r="W77">
+        <v>0.0811917808219178</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.911147417368355</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1373803750015525</v>
+      </c>
+      <c r="C78">
+        <v>0.04737491188031595</v>
+      </c>
+      <c r="D78">
+        <v>1.786734911880316</v>
+      </c>
+      <c r="E78">
+        <v>1.10936</v>
+      </c>
+      <c r="F78">
+        <v>1.77536</v>
+      </c>
+      <c r="G78">
+        <v>0.036</v>
+      </c>
+      <c r="H78">
+        <v>1.67</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.196</v>
+      </c>
+      <c r="K78">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L78">
+        <v>0.174</v>
+      </c>
+      <c r="M78">
+        <v>0.19351424</v>
+      </c>
+      <c r="N78">
+        <v>-0.01951423999999999</v>
+      </c>
+      <c r="O78">
+        <v>-0.005463987199999997</v>
+      </c>
+      <c r="P78">
+        <v>-0.01405025279999999</v>
+      </c>
+      <c r="Q78">
+        <v>0.007949747200000029</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.3141522474379758</v>
+      </c>
+      <c r="T78">
+        <v>2.544532523728675</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.2517644179570455</v>
+      </c>
+      <c r="W78">
+        <v>0.08155767844268204</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.8991586355608766</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1383773750015525</v>
+      </c>
+      <c r="C79">
+        <v>0.01021408344602803</v>
+      </c>
+      <c r="D79">
+        <v>1.772934083446028</v>
+      </c>
+      <c r="E79">
+        <v>1.13272</v>
+      </c>
+      <c r="F79">
+        <v>1.79872</v>
+      </c>
+      <c r="G79">
+        <v>0.036</v>
+      </c>
+      <c r="H79">
+        <v>1.67</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0.196</v>
+      </c>
+      <c r="K79">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L79">
+        <v>0.174</v>
+      </c>
+      <c r="M79">
+        <v>0.19606048</v>
+      </c>
+      <c r="N79">
+        <v>-0.02206047999999999</v>
+      </c>
+      <c r="O79">
+        <v>-0.006176934399999999</v>
+      </c>
+      <c r="P79">
+        <v>-0.01588354559999999</v>
+      </c>
+      <c r="Q79">
+        <v>0.006116454400000026</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.3274066929787574</v>
+      </c>
+      <c r="T79">
+        <v>2.655164372586444</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.2484947501913695</v>
+      </c>
+      <c r="W79">
+        <v>0.08191407222914071</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.8874812506834626</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1393743750015525</v>
+      </c>
+      <c r="C80">
+        <v>-0.02673518255024998</v>
+      </c>
+      <c r="D80">
+        <v>1.75934481744975</v>
+      </c>
+      <c r="E80">
+        <v>1.15608</v>
+      </c>
+      <c r="F80">
+        <v>1.82208</v>
+      </c>
+      <c r="G80">
+        <v>0.036</v>
+      </c>
+      <c r="H80">
+        <v>1.67</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0.196</v>
+      </c>
+      <c r="K80">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L80">
+        <v>0.174</v>
+      </c>
+      <c r="M80">
+        <v>0.19860672</v>
+      </c>
+      <c r="N80">
+        <v>-0.02460672</v>
+      </c>
+      <c r="O80">
+        <v>-0.006889881600000001</v>
+      </c>
+      <c r="P80">
+        <v>-0.0177168384</v>
+      </c>
+      <c r="Q80">
+        <v>0.004283161600000022</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.3418660881141554</v>
+      </c>
+      <c r="T80">
+        <v>2.775853662249464</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.245308920060711</v>
+      </c>
+      <c r="W80">
+        <v>0.0822613277133825</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.8761032859311105</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1403713750015526</v>
+      </c>
+      <c r="C81">
+        <v>-0.06347771388462142</v>
+      </c>
+      <c r="D81">
+        <v>1.745962286115379</v>
+      </c>
+      <c r="E81">
+        <v>1.17944</v>
+      </c>
+      <c r="F81">
+        <v>1.84544</v>
+      </c>
+      <c r="G81">
+        <v>0.036</v>
+      </c>
+      <c r="H81">
+        <v>1.67</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0.196</v>
+      </c>
+      <c r="K81">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L81">
+        <v>0.174</v>
+      </c>
+      <c r="M81">
+        <v>0.20115296</v>
+      </c>
+      <c r="N81">
+        <v>-0.02715296</v>
+      </c>
+      <c r="O81">
+        <v>-0.007602828800000002</v>
+      </c>
+      <c r="P81">
+        <v>-0.0195501312</v>
+      </c>
+      <c r="Q81">
+        <v>0.002449868800000018</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.3577025685005438</v>
+      </c>
+      <c r="T81">
+        <v>2.908037169975629</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.2422037438574108</v>
+      </c>
+      <c r="W81">
+        <v>0.08259979191954221</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.8650133709193243</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1413683750015525</v>
+      </c>
+      <c r="C82">
+        <v>-0.1000181925513464</v>
+      </c>
+      <c r="D82">
+        <v>1.732781807448654</v>
+      </c>
+      <c r="E82">
+        <v>1.2028</v>
+      </c>
+      <c r="F82">
+        <v>1.8688</v>
+      </c>
+      <c r="G82">
+        <v>0.036</v>
+      </c>
+      <c r="H82">
+        <v>1.67</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.196</v>
+      </c>
+      <c r="K82">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L82">
+        <v>0.174</v>
+      </c>
+      <c r="M82">
+        <v>0.2036992</v>
+      </c>
+      <c r="N82">
+        <v>-0.02969920000000001</v>
+      </c>
+      <c r="O82">
+        <v>-0.008315776000000004</v>
+      </c>
+      <c r="P82">
+        <v>-0.02138342400000001</v>
+      </c>
+      <c r="Q82">
+        <v>0.0006165760000000145</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.375122696925571</v>
+      </c>
+      <c r="T82">
+        <v>3.05343902847441</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.2391761970591932</v>
+      </c>
+      <c r="W82">
+        <v>0.08292979452054795</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8542007037828327</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1423653750015526</v>
+      </c>
+      <c r="C83">
+        <v>-0.1363611602242378</v>
+      </c>
+      <c r="D83">
+        <v>1.719798839775762</v>
+      </c>
+      <c r="E83">
+        <v>1.22616</v>
+      </c>
+      <c r="F83">
+        <v>1.89216</v>
+      </c>
+      <c r="G83">
+        <v>0.036</v>
+      </c>
+      <c r="H83">
+        <v>1.67</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0.196</v>
+      </c>
+      <c r="K83">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L83">
+        <v>0.174</v>
+      </c>
+      <c r="M83">
+        <v>0.20624544</v>
+      </c>
+      <c r="N83">
+        <v>-0.03224544000000001</v>
+      </c>
+      <c r="O83">
+        <v>-0.009028723200000005</v>
+      </c>
+      <c r="P83">
+        <v>-0.02321671680000001</v>
+      </c>
+      <c r="Q83">
+        <v>-0.001216716799999989</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3943765230795485</v>
+      </c>
+      <c r="T83">
+        <v>3.214146345762538</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.2362234045029068</v>
+      </c>
+      <c r="W83">
+        <v>0.08325164890918316</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.84365501608181</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1433623750015526</v>
+      </c>
+      <c r="C84">
+        <v>-0.1725110234743603</v>
+      </c>
+      <c r="D84">
+        <v>1.70700897652564</v>
+      </c>
+      <c r="E84">
+        <v>1.24952</v>
+      </c>
+      <c r="F84">
+        <v>1.91552</v>
+      </c>
+      <c r="G84">
+        <v>0.036</v>
+      </c>
+      <c r="H84">
+        <v>1.67</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0.196</v>
+      </c>
+      <c r="K84">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L84">
+        <v>0.174</v>
+      </c>
+      <c r="M84">
+        <v>0.20879168</v>
+      </c>
+      <c r="N84">
+        <v>-0.03479168000000002</v>
+      </c>
+      <c r="O84">
+        <v>-0.009741670400000006</v>
+      </c>
+      <c r="P84">
+        <v>-0.02505000960000001</v>
+      </c>
+      <c r="Q84">
+        <v>-0.003050009599999993</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.4157696632506346</v>
+      </c>
+      <c r="T84">
+        <v>3.392710031638235</v>
+      </c>
+      <c r="U84">
+        <v>0.109</v>
+      </c>
+      <c r="V84">
+        <v>0.2333426312772616</v>
+      </c>
+      <c r="W84">
+        <v>0.08356565319077848</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.8333665402759343</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1443593750015525</v>
+      </c>
+      <c r="C85">
+        <v>-0.2084720587566311</v>
+      </c>
+      <c r="D85">
+        <v>1.694407941243369</v>
+      </c>
+      <c r="E85">
+        <v>1.27288</v>
+      </c>
+      <c r="F85">
+        <v>1.93888</v>
+      </c>
+      <c r="G85">
+        <v>0.036</v>
+      </c>
+      <c r="H85">
+        <v>1.67</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0.196</v>
+      </c>
+      <c r="K85">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L85">
+        <v>0.174</v>
+      </c>
+      <c r="M85">
+        <v>0.21133792</v>
+      </c>
+      <c r="N85">
+        <v>-0.03733792</v>
+      </c>
+      <c r="O85">
+        <v>-0.0104546176</v>
+      </c>
+      <c r="P85">
+        <v>-0.0268833024</v>
+      </c>
+      <c r="Q85">
+        <v>-0.004883302399999977</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.4396796434418483</v>
+      </c>
+      <c r="T85">
+        <v>3.592281209969896</v>
+      </c>
+      <c r="U85">
+        <v>0.109</v>
+      </c>
+      <c r="V85">
+        <v>0.2305312742739211</v>
+      </c>
+      <c r="W85">
+        <v>0.08387209110414259</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.8233259795497183</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1453563750015525</v>
+      </c>
+      <c r="C86">
+        <v>-0.2442484171771779</v>
+      </c>
+      <c r="D86">
+        <v>1.681991582822822</v>
+      </c>
+      <c r="E86">
+        <v>1.29624</v>
+      </c>
+      <c r="F86">
+        <v>1.96224</v>
+      </c>
+      <c r="G86">
+        <v>0.036</v>
+      </c>
+      <c r="H86">
+        <v>1.67</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.196</v>
+      </c>
+      <c r="K86">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L86">
+        <v>0.174</v>
+      </c>
+      <c r="M86">
+        <v>0.21388416</v>
+      </c>
+      <c r="N86">
+        <v>-0.03988415999999997</v>
+      </c>
+      <c r="O86">
+        <v>-0.01116756479999999</v>
+      </c>
+      <c r="P86">
+        <v>-0.02871659519999998</v>
+      </c>
+      <c r="Q86">
+        <v>-0.00671659519999996</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.4665783711569637</v>
+      </c>
+      <c r="T86">
+        <v>3.816798785593012</v>
+      </c>
+      <c r="U86">
+        <v>0.109</v>
+      </c>
+      <c r="V86">
+        <v>0.2277868543420888</v>
+      </c>
+      <c r="W86">
+        <v>0.08417123287671233</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.8135244797931741</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1463533750015525</v>
+      </c>
+      <c r="C87">
+        <v>-0.2798441290526086</v>
+      </c>
+      <c r="D87">
+        <v>1.669755870947391</v>
+      </c>
+      <c r="E87">
+        <v>1.3196</v>
+      </c>
+      <c r="F87">
+        <v>1.9856</v>
+      </c>
+      <c r="G87">
+        <v>0.036</v>
+      </c>
+      <c r="H87">
+        <v>1.67</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.196</v>
+      </c>
+      <c r="K87">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L87">
+        <v>0.174</v>
+      </c>
+      <c r="M87">
+        <v>0.2164304</v>
+      </c>
+      <c r="N87">
+        <v>-0.04243039999999998</v>
+      </c>
+      <c r="O87">
+        <v>-0.011880512</v>
+      </c>
+      <c r="P87">
+        <v>-0.03054988799999998</v>
+      </c>
+      <c r="Q87">
+        <v>-0.008549887999999964</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.4970635959007612</v>
+      </c>
+      <c r="T87">
+        <v>4.071252037965879</v>
+      </c>
+      <c r="U87">
+        <v>0.109</v>
+      </c>
+      <c r="V87">
+        <v>0.2251070089968877</v>
+      </c>
+      <c r="W87">
+        <v>0.08446333601933924</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.8039536035603132</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.178034937734688</v>
+      </c>
+      <c r="C88">
+        <v>-0.6167164110058552</v>
+      </c>
+      <c r="D88">
+        <v>1.356243588994144</v>
+      </c>
+      <c r="E88">
+        <v>1.34296</v>
+      </c>
+      <c r="F88">
+        <v>2.00896</v>
+      </c>
+      <c r="G88">
+        <v>0.036</v>
+      </c>
+      <c r="H88">
+        <v>1.67</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.196</v>
+      </c>
+      <c r="K88">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L88">
+        <v>0.174</v>
+      </c>
+      <c r="M88">
+        <v>0.2816561919999999</v>
+      </c>
+      <c r="N88">
+        <v>-0.1076561919999999</v>
+      </c>
+      <c r="O88">
+        <v>-0.03014373375999998</v>
+      </c>
+      <c r="P88">
+        <v>-0.07751245823999994</v>
+      </c>
+      <c r="Q88">
+        <v>-0.05551245823999992</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.5594221579874975</v>
+      </c>
+      <c r="T88">
+        <v>4.591744803547138</v>
+      </c>
+      <c r="U88">
+        <v>0.1402</v>
+      </c>
+      <c r="V88">
+        <v>0.1729768468928246</v>
+      </c>
+      <c r="W88">
+        <v>0.115948646065626</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.6177744531886593</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.179343937734688</v>
+      </c>
+      <c r="C89">
+        <v>-0.6505167882497842</v>
+      </c>
+      <c r="D89">
+        <v>1.345803211750216</v>
+      </c>
+      <c r="E89">
+        <v>1.36632</v>
+      </c>
+      <c r="F89">
+        <v>2.03232</v>
+      </c>
+      <c r="G89">
+        <v>0.036</v>
+      </c>
+      <c r="H89">
+        <v>1.67</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0.196</v>
+      </c>
+      <c r="K89">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L89">
+        <v>0.174</v>
+      </c>
+      <c r="M89">
+        <v>0.284931264</v>
+      </c>
+      <c r="N89">
+        <v>-0.110931264</v>
+      </c>
+      <c r="O89">
+        <v>-0.03106075392</v>
+      </c>
+      <c r="P89">
+        <v>-0.07987051007999998</v>
+      </c>
+      <c r="Q89">
+        <v>-0.05787051007999996</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.6017392470634588</v>
+      </c>
+      <c r="T89">
+        <v>4.944955942281534</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.1709886072733668</v>
+      </c>
+      <c r="W89">
+        <v>0.116227397260274</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.6106735974048816</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.180652937734688</v>
+      </c>
+      <c r="C90">
+        <v>-0.6841576531562774</v>
+      </c>
+      <c r="D90">
+        <v>1.335522346843722</v>
+      </c>
+      <c r="E90">
+        <v>1.38968</v>
+      </c>
+      <c r="F90">
+        <v>2.05568</v>
+      </c>
+      <c r="G90">
+        <v>0.036</v>
+      </c>
+      <c r="H90">
+        <v>1.67</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0.196</v>
+      </c>
+      <c r="K90">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L90">
+        <v>0.174</v>
+      </c>
+      <c r="M90">
+        <v>0.288206336</v>
+      </c>
+      <c r="N90">
+        <v>-0.114206336</v>
+      </c>
+      <c r="O90">
+        <v>-0.03197777407999999</v>
+      </c>
+      <c r="P90">
+        <v>-0.08222856191999997</v>
+      </c>
+      <c r="Q90">
+        <v>-0.06022856191999995</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.6511091843187471</v>
+      </c>
+      <c r="T90">
+        <v>5.357035604138328</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.1690455549179877</v>
+      </c>
+      <c r="W90">
+        <v>0.1164998132004981</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.6037341247070989</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1819619377346881</v>
+      </c>
+      <c r="C91">
+        <v>-0.7176426336525856</v>
+      </c>
+      <c r="D91">
+        <v>1.325397366347414</v>
+      </c>
+      <c r="E91">
+        <v>1.41304</v>
+      </c>
+      <c r="F91">
+        <v>2.07904</v>
+      </c>
+      <c r="G91">
+        <v>0.036</v>
+      </c>
+      <c r="H91">
+        <v>1.67</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0.196</v>
+      </c>
+      <c r="K91">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L91">
+        <v>0.174</v>
+      </c>
+      <c r="M91">
+        <v>0.291481408</v>
+      </c>
+      <c r="N91">
+        <v>-0.117481408</v>
+      </c>
+      <c r="O91">
+        <v>-0.03289479424</v>
+      </c>
+      <c r="P91">
+        <v>-0.08458661376000001</v>
+      </c>
+      <c r="Q91">
+        <v>-0.06258661375999999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.7094554738022698</v>
+      </c>
+      <c r="T91">
+        <v>5.844038840878178</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.1671461666604822</v>
+      </c>
+      <c r="W91">
+        <v>0.1167661074342004</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.5969505952160077</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.183270937734688</v>
+      </c>
+      <c r="C92">
+        <v>-0.7509752484763013</v>
+      </c>
+      <c r="D92">
+        <v>1.315424751523699</v>
+      </c>
+      <c r="E92">
+        <v>1.4364</v>
+      </c>
+      <c r="F92">
+        <v>2.1024</v>
+      </c>
+      <c r="G92">
+        <v>0.036</v>
+      </c>
+      <c r="H92">
+        <v>1.67</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0.196</v>
+      </c>
+      <c r="K92">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L92">
+        <v>0.174</v>
+      </c>
+      <c r="M92">
+        <v>0.2947564799999999</v>
+      </c>
+      <c r="N92">
+        <v>-0.1207564799999999</v>
+      </c>
+      <c r="O92">
+        <v>-0.03381181439999999</v>
+      </c>
+      <c r="P92">
+        <v>-0.08694466559999996</v>
+      </c>
+      <c r="Q92">
+        <v>-0.06494466559999994</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.7794710211824967</v>
+      </c>
+      <c r="T92">
+        <v>6.428442724965995</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.1652889870309213</v>
+      </c>
+      <c r="W92">
+        <v>0.1170264840182648</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.5903178108247189</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.184579937734688</v>
+      </c>
+      <c r="C93">
+        <v>-0.7841589112525338</v>
+      </c>
+      <c r="D93">
+        <v>1.305601088747466</v>
+      </c>
+      <c r="E93">
+        <v>1.45976</v>
+      </c>
+      <c r="F93">
+        <v>2.12576</v>
+      </c>
+      <c r="G93">
+        <v>0.036</v>
+      </c>
+      <c r="H93">
+        <v>1.67</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0.196</v>
+      </c>
+      <c r="K93">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L93">
+        <v>0.174</v>
+      </c>
+      <c r="M93">
+        <v>0.298031552</v>
+      </c>
+      <c r="N93">
+        <v>-0.124031552</v>
+      </c>
+      <c r="O93">
+        <v>-0.03472883456</v>
+      </c>
+      <c r="P93">
+        <v>-0.08930271743999998</v>
+      </c>
+      <c r="Q93">
+        <v>-0.06730271743999997</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.8650455790916631</v>
+      </c>
+      <c r="T93">
+        <v>7.142714138851107</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.163472624536076</v>
+      </c>
+      <c r="W93">
+        <v>0.1172811380400421</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5838308019145571</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.185888937734688</v>
+      </c>
+      <c r="C94">
+        <v>-0.8171969343897367</v>
+      </c>
+      <c r="D94">
+        <v>1.295923065610263</v>
+      </c>
+      <c r="E94">
+        <v>1.48312</v>
+      </c>
+      <c r="F94">
+        <v>2.14912</v>
+      </c>
+      <c r="G94">
+        <v>0.036</v>
+      </c>
+      <c r="H94">
+        <v>1.67</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0.196</v>
+      </c>
+      <c r="K94">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L94">
+        <v>0.174</v>
+      </c>
+      <c r="M94">
+        <v>0.301306624</v>
+      </c>
+      <c r="N94">
+        <v>-0.127306624</v>
+      </c>
+      <c r="O94">
+        <v>-0.03564585471999999</v>
+      </c>
+      <c r="P94">
+        <v>-0.09166076927999998</v>
+      </c>
+      <c r="Q94">
+        <v>-0.06966076927999997</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.9720137764781211</v>
+      </c>
+      <c r="T94">
+        <v>8.035553406207496</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.161695748182423</v>
+      </c>
+      <c r="W94">
+        <v>0.1175302561048243</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.5774848149372249</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.187197937734688</v>
+      </c>
+      <c r="C95">
+        <v>-0.8500925328035518</v>
+      </c>
+      <c r="D95">
+        <v>1.286387467196448</v>
+      </c>
+      <c r="E95">
+        <v>1.50648</v>
+      </c>
+      <c r="F95">
+        <v>2.17248</v>
+      </c>
+      <c r="G95">
+        <v>0.036</v>
+      </c>
+      <c r="H95">
+        <v>1.67</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0.196</v>
+      </c>
+      <c r="K95">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L95">
+        <v>0.174</v>
+      </c>
+      <c r="M95">
+        <v>0.304581696</v>
+      </c>
+      <c r="N95">
+        <v>-0.130581696</v>
+      </c>
+      <c r="O95">
+        <v>-0.03656287488000001</v>
+      </c>
+      <c r="P95">
+        <v>-0.09401882112000001</v>
+      </c>
+      <c r="Q95">
+        <v>-0.07201882111999999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>1.109544315974996</v>
+      </c>
+      <c r="T95">
+        <v>9.183489607094284</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.1599570842234722</v>
+      </c>
+      <c r="W95">
+        <v>0.1177740167918692</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.5712753007981148</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.188506937734688</v>
+      </c>
+      <c r="C96">
+        <v>-0.8828488274774393</v>
+      </c>
+      <c r="D96">
+        <v>1.276991172522561</v>
+      </c>
+      <c r="E96">
+        <v>1.52984</v>
+      </c>
+      <c r="F96">
+        <v>2.19584</v>
+      </c>
+      <c r="G96">
+        <v>0.036</v>
+      </c>
+      <c r="H96">
+        <v>1.67</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0.196</v>
+      </c>
+      <c r="K96">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L96">
+        <v>0.174</v>
+      </c>
+      <c r="M96">
+        <v>0.307856768</v>
+      </c>
+      <c r="N96">
+        <v>-0.133856768</v>
+      </c>
+      <c r="O96">
+        <v>-0.03747989504000001</v>
+      </c>
+      <c r="P96">
+        <v>-0.09637687296</v>
+      </c>
+      <c r="Q96">
+        <v>-0.07437687295999998</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>1.292918368637496</v>
+      </c>
+      <c r="T96">
+        <v>10.71407120827667</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.1582554131147119</v>
+      </c>
+      <c r="W96">
+        <v>0.1180125910813174</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5651979039811137</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.189815937734688</v>
+      </c>
+      <c r="C97">
+        <v>-0.9154688488683971</v>
+      </c>
+      <c r="D97">
+        <v>1.267731151131603</v>
+      </c>
+      <c r="E97">
+        <v>1.5532</v>
+      </c>
+      <c r="F97">
+        <v>2.2192</v>
+      </c>
+      <c r="G97">
+        <v>0.036</v>
+      </c>
+      <c r="H97">
+        <v>1.67</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0.196</v>
+      </c>
+      <c r="K97">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L97">
+        <v>0.174</v>
+      </c>
+      <c r="M97">
+        <v>0.3111318399999999</v>
+      </c>
+      <c r="N97">
+        <v>-0.1371318399999999</v>
+      </c>
+      <c r="O97">
+        <v>-0.03839691519999999</v>
+      </c>
+      <c r="P97">
+        <v>-0.09873492479999996</v>
+      </c>
+      <c r="Q97">
+        <v>-0.07673492479999994</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.549642042364995</v>
+      </c>
+      <c r="T97">
+        <v>12.85688544993201</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.1565895666608728</v>
+      </c>
+      <c r="W97">
+        <v>0.1182461427541456</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.5592484523602599</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.191124937734688</v>
+      </c>
+      <c r="C98">
+        <v>-0.9479555401655646</v>
+      </c>
+      <c r="D98">
+        <v>1.258604459834435</v>
+      </c>
+      <c r="E98">
+        <v>1.57656</v>
+      </c>
+      <c r="F98">
+        <v>2.24256</v>
+      </c>
+      <c r="G98">
+        <v>0.036</v>
+      </c>
+      <c r="H98">
+        <v>1.67</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0.196</v>
+      </c>
+      <c r="K98">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L98">
+        <v>0.174</v>
+      </c>
+      <c r="M98">
+        <v>0.3144069119999999</v>
+      </c>
+      <c r="N98">
+        <v>-0.1404069119999999</v>
+      </c>
+      <c r="O98">
+        <v>-0.03931393535999999</v>
+      </c>
+      <c r="P98">
+        <v>-0.1010929766399999</v>
+      </c>
+      <c r="Q98">
+        <v>-0.07909297663999992</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.93472755295624</v>
+      </c>
+      <c r="T98">
+        <v>16.07110681241497</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.1549584253414887</v>
+      </c>
+      <c r="W98">
+        <v>0.1184748287671233</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.553422947648174</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.192433937734688</v>
+      </c>
+      <c r="C99">
+        <v>-0.9803117604090794</v>
+      </c>
+      <c r="D99">
+        <v>1.24960823959092</v>
+      </c>
+      <c r="E99">
+        <v>1.59992</v>
+      </c>
+      <c r="F99">
+        <v>2.26592</v>
+      </c>
+      <c r="G99">
+        <v>0.036</v>
+      </c>
+      <c r="H99">
+        <v>1.67</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.196</v>
+      </c>
+      <c r="K99">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L99">
+        <v>0.174</v>
+      </c>
+      <c r="M99">
+        <v>0.317681984</v>
+      </c>
+      <c r="N99">
+        <v>-0.143681984</v>
+      </c>
+      <c r="O99">
+        <v>-0.04023095552</v>
+      </c>
+      <c r="P99">
+        <v>-0.10345102848</v>
+      </c>
+      <c r="Q99">
+        <v>-0.08145102847999997</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>2.576536737274987</v>
+      </c>
+      <c r="T99">
+        <v>21.4281424165533</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.1533609158018857</v>
+      </c>
+      <c r="W99">
+        <v>0.1186987996045756</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5477175564353061</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.193742937734688</v>
+      </c>
+      <c r="C100">
+        <v>-1.012540287476119</v>
+      </c>
+      <c r="D100">
+        <v>1.240739712523881</v>
+      </c>
+      <c r="E100">
+        <v>1.62328</v>
+      </c>
+      <c r="F100">
+        <v>2.28928</v>
+      </c>
+      <c r="G100">
+        <v>0.036</v>
+      </c>
+      <c r="H100">
+        <v>1.67</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0.196</v>
+      </c>
+      <c r="K100">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L100">
+        <v>0.174</v>
+      </c>
+      <c r="M100">
+        <v>0.320957056</v>
+      </c>
+      <c r="N100">
+        <v>-0.146957056</v>
+      </c>
+      <c r="O100">
+        <v>-0.04114797568</v>
+      </c>
+      <c r="P100">
+        <v>-0.10580908032</v>
+      </c>
+      <c r="Q100">
+        <v>-0.08380908031999995</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>3.860155105912479</v>
+      </c>
+      <c r="T100">
+        <v>32.14221362482994</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.1517960084977849</v>
+      </c>
+      <c r="W100">
+        <v>0.1189181996086106</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.542128601777803</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.195051937734688</v>
+      </c>
+      <c r="C101">
+        <v>-1.044643820940699</v>
+      </c>
+      <c r="D101">
+        <v>1.231996179059301</v>
+      </c>
+      <c r="E101">
+        <v>1.64664</v>
+      </c>
+      <c r="F101">
+        <v>2.31264</v>
+      </c>
+      <c r="G101">
+        <v>0.036</v>
+      </c>
+      <c r="H101">
+        <v>1.67</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.196</v>
+      </c>
+      <c r="K101">
+        <v>0.02200000000000002</v>
+      </c>
+      <c r="L101">
+        <v>0.174</v>
+      </c>
+      <c r="M101">
+        <v>0.324232128</v>
+      </c>
+      <c r="N101">
+        <v>-0.150232128</v>
+      </c>
+      <c r="O101">
+        <v>-0.04206499584000001</v>
+      </c>
+      <c r="P101">
+        <v>-0.10816713216</v>
+      </c>
+      <c r="Q101">
+        <v>-0.08616713215999999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>7.711010211824958</v>
+      </c>
+      <c r="T101">
+        <v>64.28442724965988</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.1502627154826557</v>
+      </c>
+      <c r="W101">
+        <v>0.1191331672893317</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5366525552951988</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
